--- a/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,932 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r478965932-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>55436</t>
+  </si>
+  <si>
+    <t>241635</t>
+  </si>
+  <si>
+    <t>478965932</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Decent For the Price</t>
+  </si>
+  <si>
+    <t>Decent hotel.  Clean sheets, clean towels, friendly staff, hot water, and ac.  Carpet is very worn and stained, but this hotel is undergoing renovation.  Had no problems staying with my dogs, so that always makes it pleasent.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r473629304-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>473629304</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Nothing to brag about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay was alright. The staff wasn't so welcoming. I had to ask for an iron because there was none in the room. The toilet overflowed. No free breakfast just juice and coffee. The only good thing about it is I had a place to lay my head, because my home is being renovated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r446613122-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>446613122</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Stayed here with my family. Staff was friendly had zero problems. Definitely would stay again. Nice, quite smells clean when u walk in place. I've stayed at a lot of motel 6 before and this one is pretty decent had no complaints.I just hate the reviews on here because it sounds like a bunch of broke people reviews.We all have a choice as to where we choose to stay!!!!  I'm sorry u didn't have enough money to stay at a Hyatt or Omni!! It's MOTEL 6 people what do u really expect here??</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r422660689-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>422660689</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>BED BUG HAVEN</t>
+  </si>
+  <si>
+    <t>This is a Motel 6 !!!!! I have been staying here on bussiness for 3 weeks now on a prepaid stay!!  and have been battling bed bugs from Day 1 and have moved rooms 3 times!!! They All Act like they don't know they have a infestation!!! Thats why it is so cheap!!! Mattress 4 years old , stained up , Broad Shoulder Room Service dislikes her job and you have to constantly watch her too make sure she cleans your room!!! She tries to clean only the rooms guest check out off!!! Thats why the Bed Bugs Are Here To Stay!!!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r357379849-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>357379849</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Was okay, but some things were wrong</t>
+  </si>
+  <si>
+    <t>I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!
+The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on...I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on the 1st floor (we were on the 3rd..). Front desk is very nice and understanding though. We got fresh towels, but our bed was never made. The pool here is ridiculously small. I didn't swim, I just saw. They also have a microwave in the sitting/eating, what used to be the breakfast area near the lobby. That microwave smells SO BAD. I almost puked. When I opened it, there was a dirty plate sitting in it. I also remember the 2nd day as I was leaving to do things for the day, I passed a man at the front desk who seemed pretty frustrated. I didn't catch the conversation, but he keep looking at his arms. So I'm thinking maybe he was complaining to the front desk that he was getting bitten by something in the room? We didn't have that problem though... all in all, the room was nice and big, the tv was great, the bathroom was big and had a lot of counter space, the shower head was high...but there were some down sides. it all really depends on how much you're expecting from a motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!
+The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on...I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on the 1st floor (we were on the 3rd..). Front desk is very nice and understanding though. We got fresh towels, but our bed was never made. The pool here is ridiculously small. I didn't swim, I just saw. They also have a microwave in the sitting/eating, what used to be the breakfast area near the lobby. That microwave smells SO BAD. I almost puked. When I opened it, there was a dirty plate sitting in it. I also remember the 2nd day as I was leaving to do things for the day, I passed a man at the front desk who seemed pretty frustrated. I didn't catch the conversation, but he keep looking at his arms. So I'm thinking maybe he was complaining to the front desk that he was getting bitten by something in the room? We didn't have that problem though... all in all, the room was nice and big, the tv was great, the bathroom was big and had a lot of counter space, the shower head was high...but there were some down sides. it all really depends on how much you're expecting from a motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r334434085-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>334434085</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Some good, some not so.</t>
+  </si>
+  <si>
+    <t>Location was great for what we were doing.  The good:  room was spotlessly clean, large and pleasant.  People who worked there were very nice.  Price was reasonable.  The bad:  wifi in our room was very spotty, often not there at all.  Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake.  What the heck?  Mattresses were just bad.  Worn out, not the usual La Quinta quality at all.  Very hard on backs.  Light out over the sink in the bathroom; reported it, took two days to get it fixed. Location is right off I-20, but far enough off that the area seems somewhat protected from the interstate mess.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Location was great for what we were doing.  The good:  room was spotlessly clean, large and pleasant.  People who worked there were very nice.  Price was reasonable.  The bad:  wifi in our room was very spotty, often not there at all.  Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake.  What the heck?  Mattresses were just bad.  Worn out, not the usual La Quinta quality at all.  Very hard on backs.  Light out over the sink in the bathroom; reported it, took two days to get it fixed. Location is right off I-20, but far enough off that the area seems somewhat protected from the interstate mess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r326715484-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>326715484</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Watch out for used washcloth!</t>
+  </si>
+  <si>
+    <t>I decided to take a few days and go explore the Dallas area, have a few points on my Rewards card, I figured why not use them to get a room.  Boy was I wrong!!  When I entered the room, I was assaulted by hispanic music and a strong odor.  The clock radio had been left on full blast. (no it was not the alarm, as that went off at 6am the next day!)  The odor seemed like someone had gone crazy with the air-freshener to cover up some other odor!  Undaunted, I decided to take a shower.  When I leaned my head back to wet my hair, I saw pieces of the ceiling in the shower were hanging down.  Then when i pulled back the shower curtain to get out, someone's dirty wet washcloth fell on me from the shower curtain bar!!!  Needless to say, I cut my trip short and went back home!  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I decided to take a few days and go explore the Dallas area, have a few points on my Rewards card, I figured why not use them to get a room.  Boy was I wrong!!  When I entered the room, I was assaulted by hispanic music and a strong odor.  The clock radio had been left on full blast. (no it was not the alarm, as that went off at 6am the next day!)  The odor seemed like someone had gone crazy with the air-freshener to cover up some other odor!  Undaunted, I decided to take a shower.  When I leaned my head back to wet my hair, I saw pieces of the ceiling in the shower were hanging down.  Then when i pulled back the shower curtain to get out, someone's dirty wet washcloth fell on me from the shower curtain bar!!!  Needless to say, I cut my trip short and went back home!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r319569027-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>319569027</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I shared a room with a friend... All they had to offer was a "family room" it was dirty stains on the couch and carpet.. and out dated decor, the light bulbs in all the lamps were burned out. We got down to breakfast at 9:54 and the staff had already put all the food and drinks away only burnt coffee left it was bad! Had ask staff for water to drink... If you have a choice stay elsewhere </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r315320955-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>315320955</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>For the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I didn't expect the Hyatt but the ole girl showing her age. Seemed clean enough, I had plenty of hot water and saw no bugs. Bed was ok pillows would be a cheap fix, they seem a little hard. Breakfast was alright with the minimum amount choices. I was looking for something close to the Bart and east of town, fit our bill. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r293147672-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>293147672</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Great for the Money</t>
+  </si>
+  <si>
+    <t>Front desk is very friendly as he was checking us in. Gave us directions to restaurants in the area. Staff are nice and helpful. Lobby is very nice and clean. Checked into our room which is spacious enough for my kids. Breakfast is more than enough for it to be Continental breakfast. I am satisfied with the breakfast. This stay is worth my money. I enjoyed my stay. No complaints!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r291173437-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>291173437</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>great!!</t>
+  </si>
+  <si>
+    <t>I felt like I was at home away from home. JIll Jones is a wonderful, beautiful, smart,intelligent, young lady! She gave me the best room and treated me like i was a princess. My only complaint is that i would like more juice options in the breakfast area. other than that it was wonderful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r290399875-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>290399875</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>WTH</t>
+  </si>
+  <si>
+    <t>I paid $100 for this damn room and it wasn't worth it at all i stayed in room 220...the lamp behind the tv didn't work the refrigerator didn't work nor did microwave...i called to let them know and i was told that they didn't have anymore light bulbs and maintenance would come fix the rest on top of that i didn't have any soap shampoo conditioner or lotion you know the complimentary mess so luckily i always bring my own....but to accommodate me for the FRIDGE being out they would let me put my belonging in their fridge...I BET NOT!!! THAT MEANS I NEED TO GET UP GO DOWNSTAIRS GET MY STUFF GO BACK UP STAIRS CONTINUOUSLY besides that, COMPLETE STRANGERS WOULD HAVE ACCESS TO MY FOOD AND DRINKS. ..UUUUUGH....i was told that i couldn't get a refund or anything off the room because i didn't book with them directly...ALL IN ALL DON'T WASTE YOUR TIME. ...o yeah the waffles are great. ..i did say WAFFLES....MoreShow less</t>
+  </si>
+  <si>
+    <t>I paid $100 for this damn room and it wasn't worth it at all i stayed in room 220...the lamp behind the tv didn't work the refrigerator didn't work nor did microwave...i called to let them know and i was told that they didn't have anymore light bulbs and maintenance would come fix the rest on top of that i didn't have any soap shampoo conditioner or lotion you know the complimentary mess so luckily i always bring my own....but to accommodate me for the FRIDGE being out they would let me put my belonging in their fridge...I BET NOT!!! THAT MEANS I NEED TO GET UP GO DOWNSTAIRS GET MY STUFF GO BACK UP STAIRS CONTINUOUSLY besides that, COMPLETE STRANGERS WOULD HAVE ACCESS TO MY FOOD AND DRINKS. ..UUUUUGH....i was told that i couldn't get a refund or anything off the room because i didn't book with them directly...ALL IN ALL DON'T WASTE YOUR TIME. ...o yeah the waffles are great. ..i did say WAFFLES....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r270283076-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>270283076</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Horrible from the beginning!</t>
+  </si>
+  <si>
+    <t>If I hadn't just driven all day and knew of another pet friendly hotel I would have RAN OUT! Stinks of smoke, pee left in toilet and all over seat, shower still wet, tissues in garage! Blegh, I'll be contacting someone hire in the morning to comp this stay it is the worst La Quinta experience I have ever had and I've stayed at a lot being a military family with pets who pcs a lot.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269096723-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>269096723</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Great truck parking</t>
+  </si>
+  <si>
+    <t>Property seems to be getting run down, and is apparently in a bad neighborhood (all the exits were locked except the front door). The carpet in the hallway appeared to have not been vacuumed in months (when I mentioned that to the staff the next morning, they were genuinely concerned about it though). The breakfast area was disgraceful. So much so that I picked up and placed in the trash several empty waffle batter cups, butter tubs etc. myself. The breakfast was cold cereal &amp; waffles. The room however, was good.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269177818-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>269177818</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>Short-sheeted bed, no bath tub stopper for bath, no plastic bag liners for garbage cans in room. Tub has a rust  mark inside, making it look dirty, but I could not remove it. A/c was very noisy and could not be used during sleep. Excessive noise in hallways was not good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r260226840-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>260226840</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>I Will Never Stay Here Again</t>
+  </si>
+  <si>
+    <t>This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are...This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are misleading.  It appears to show the rooms have been remodeled and updated.  It's still the same old dingy carpet and bedding from a long time ago.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are...This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are misleading.  It appears to show the rooms have been remodeled and updated.  It's still the same old dingy carpet and bedding from a long time ago.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r249294098-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>249294098</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>STAY AWAY FROM BALCH SPRINGS</t>
+  </si>
+  <si>
+    <t>unless they upgrade this hotel, consider it money and SLEEP lost. The breakfast is pathetic, the rooms have unidentified odors, and the beds are like spring boards! The bathroom rags had debris in them and the internet didn't work for the whole 4 nights. Awesome.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r246759038-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>246759038</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by how nice my stay was at this hotel. I had no trouble finding the hotel, and the price was reasonable. The room itself could have been a bit cleaner, it looked like crumbs were on the floor. The bed &amp; shower were clean. Overall a very nice stay, and I would return to this hotel if in the area again. The staff were amazing, the front desk clerk, Jackie, gave us  exceptional customer service.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r241800965-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>241800965</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Only problem</t>
+  </si>
+  <si>
+    <t>I stay at La Quinta all the time - the only problem I have ever encountered is the room coffee maker being in the bathroom where it is exposed to e-coli contamination.  I would prefer the coffee maker being located somewherelse.  I don't drink coffee in the room for this reason.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r239280154-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>239280154</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Nice Value for Money</t>
+  </si>
+  <si>
+    <t>This is a nice hotel and gives value for money. I liked the staff including housekeepers, who are very helpful and also the front desk people.Looking for baseball fields nearby, the guy printed out directions for me without even asking for them. Every time I came in or went out, they were smiling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r235583757-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>235583757</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Go elsewhere - does not look like pics</t>
+  </si>
+  <si>
+    <t>Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. 
+Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field
+- price per night was great (should have been a red flag)
+-beds and pillows are comfortable (when not occupied by bugs)
+- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.
+Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms
+- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.
+- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. 
+Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. 
+No hairdryers, no doors to closet - just the holes and ripped sheet...Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field- price per night was great (should have been a red flag)-beds and pillows are comfortable (when not occupied by bugs)- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. No hairdryers, no doors to closet - just the holes and ripped sheet rock of where the door used to be. The hot part of breakfast is ONE waffle maker - all else is continental like pastries and cereals. Hotel is located in a residential area - upon arriving at night was a little daunting. There are no access points to hotel from back or side parking lots as they don't have card readers at those doors - so if you arrive late and have to park behind the hotel (poor lighting) you have to make the long walk to the front doors to come in.Pay extra and stay elsewhere if possible. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. 
+Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field
+- price per night was great (should have been a red flag)
+-beds and pillows are comfortable (when not occupied by bugs)
+- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.
+Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms
+- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.
+- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. 
+Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. 
+No hairdryers, no doors to closet - just the holes and ripped sheet...Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field- price per night was great (should have been a red flag)-beds and pillows are comfortable (when not occupied by bugs)- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. No hairdryers, no doors to closet - just the holes and ripped sheet rock of where the door used to be. The hot part of breakfast is ONE waffle maker - all else is continental like pastries and cereals. Hotel is located in a residential area - upon arriving at night was a little daunting. There are no access points to hotel from back or side parking lots as they don't have card readers at those doors - so if you arrive late and have to park behind the hotel (poor lighting) you have to make the long walk to the front doors to come in.Pay extra and stay elsewhere if possible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r229236918-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>229236918</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, questionable area</t>
+  </si>
+  <si>
+    <t>I visited the Seagoville area on business this month (Sept 14). The first room I was given had a musty odor and was adjacent to the morning breakfast area.  Monday morning I listened to the ice machine in the other side of the wall cycle for quite some time. After a short request I moved to a second floor room near the laundry which fixed those two problems. I found the staff to be very accommodating and pleasant.  The area, however, is not the best and would stay close to Mesquite on future trips. I found little to no places to eat or stop for refreshments in the immediate vicinity. If you have a short visit and the hotel is convenient I wouldn't have a problem.  Longer term stays would best in a nicer/safer/more hospitable area. MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited the Seagoville area on business this month (Sept 14). The first room I was given had a musty odor and was adjacent to the morning breakfast area.  Monday morning I listened to the ice machine in the other side of the wall cycle for quite some time. After a short request I moved to a second floor room near the laundry which fixed those two problems. I found the staff to be very accommodating and pleasant.  The area, however, is not the best and would stay close to Mesquite on future trips. I found little to no places to eat or stop for refreshments in the immediate vicinity. If you have a short visit and the hotel is convenient I wouldn't have a problem.  Longer term stays would best in a nicer/safer/more hospitable area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r211760113-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>211760113</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Always followup on your reservations</t>
+  </si>
+  <si>
+    <t>I had reserved a room for June 7, 2014 and placed my credit card on the account. On the day I went to the hotel to confirm the reservation but the desk clerk said that they could not take the payment because I was early and many of the rooms the patrons had not checked out. I told them I was going to the event and it would be later before I could come back, the clerk told me that he would assign a room to me and not to worry. I had reserved the room for a family member and after the even I called the hotel to find out that my reservation had been canceled and my family member had no place to spend the night. I had to find a place for my family member to spend the night which was very stressful. This was not good and I was upset over this outcome. I called the hotel the following day and talk to the manager, who did find the error because I was charged for the room and was instructed to contact my bank so that the charges  were taken off my bank account.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I had reserved a room for June 7, 2014 and placed my credit card on the account. On the day I went to the hotel to confirm the reservation but the desk clerk said that they could not take the payment because I was early and many of the rooms the patrons had not checked out. I told them I was going to the event and it would be later before I could come back, the clerk told me that he would assign a room to me and not to worry. I had reserved the room for a family member and after the even I called the hotel to find out that my reservation had been canceled and my family member had no place to spend the night. I had to find a place for my family member to spend the night which was very stressful. This was not good and I was upset over this outcome. I called the hotel the following day and talk to the manager, who did find the error because I was charged for the room and was instructed to contact my bank so that the charges  were taken off my bank account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r203910447-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>203910447</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Disgusting room</t>
+  </si>
+  <si>
+    <t>Booked for location as we had an event in Mesquite and closer hotels were booked. Musty smell the minute you walk into the hotel. Third floor room, which obviously used to be a smoking floor as the stench was overwhelming the second the elevator doors opened. Nonsmoking! room was spacious but grungy. Dead insects on the ratty stained carpeting. Holes and frayed edges on the towels. The bathroom countertop was stained with cigarette marks. The pervasive smell of old cigarettes was sickening. Was so glad I didn't have a black light to highlight what I'm sure was there but couldn't see. Tore the comforter off and slept fully clothed. Pass on booking this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Booked for location as we had an event in Mesquite and closer hotels were booked. Musty smell the minute you walk into the hotel. Third floor room, which obviously used to be a smoking floor as the stench was overwhelming the second the elevator doors opened. Nonsmoking! room was spacious but grungy. Dead insects on the ratty stained carpeting. Holes and frayed edges on the towels. The bathroom countertop was stained with cigarette marks. The pervasive smell of old cigarettes was sickening. Was so glad I didn't have a black light to highlight what I'm sure was there but couldn't see. Tore the comforter off and slept fully clothed. Pass on booking this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r193014613-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>193014613</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Disgusting very disappointing!</t>
+  </si>
+  <si>
+    <t>Have stayed in several La Quintas before this was by far the worst. Very dirty dead crickets lined along the walls, smelly carpet, bed covers torn and worn not to mention the cigarette burns in a "non-smoking" room. Tried to rest in spite of for our cousin to call our room to say they we're awaken by something creepy crawling on them turned on the light and there was a roach on the pillow. This place even advertises continental breakfast which doesn't exist there was only waffles and as dirty, smelly, and disgusting as this place is who would want to eat it. I never write reviews but felt this needed to be said please be wise before you book. The staff was knowledgeable and friendly but that doesn't make up for he fact that this place is a dump and in need of a SERIOUS reno!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Have stayed in several La Quintas before this was by far the worst. Very dirty dead crickets lined along the walls, smelly carpet, bed covers torn and worn not to mention the cigarette burns in a "non-smoking" room. Tried to rest in spite of for our cousin to call our room to say they we're awaken by something creepy crawling on them turned on the light and there was a roach on the pillow. This place even advertises continental breakfast which doesn't exist there was only waffles and as dirty, smelly, and disgusting as this place is who would want to eat it. I never write reviews but felt this needed to be said please be wise before you book. The staff was knowledgeable and friendly but that doesn't make up for he fact that this place is a dump and in need of a SERIOUS reno!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r191760903-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>191760903</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Noisy neighbors</t>
+  </si>
+  <si>
+    <t>This was our second stay for the month of January. Our first stay was pleasant. The second stay on the 19th., was not pleasant at all. The people who came around 10:00 p.m. that night was horrible. They were loud, and sounded as if they were moving the furniture around. They were going in and out of they're room all night. I finally called the front desk, and the lady came immediately. After she left the noise started again. I called the front desk again; and she informed me they were ask to leave this was around 12:53 a.m. They continually made noise until they left.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r188383381-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>188383381</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>neither customer courtesy nor sanctification are a priority</t>
+  </si>
+  <si>
+    <t>I can only presume that neither customer courtesy nor sanctification are a priority when it comes to non white customers.  Even though, the motel was virtually empty the advertized rate was not available when I asked for it. Proceeding to get a room, after being on the road for two days w/o sleep, they put me in one of the worst rooms they had despite the hotel being empty. It was one with a shared door to the next room which I could head every whisper in the next room. When I asked for a quiet room the guy showed me a worse room next to the elevator (figuring I would realize how great I had it with the poor construction of my previous room). When he told me me I could complaint to the manager the next day, I asked for my money back. The clerk told me I should have made the complaint before the I used the room - (and before the other guests were assigned the room next to mine,) and that he was not going to give me back my money. Finally he showed me to a room which was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I can only presume that neither customer courtesy nor sanctification are a priority when it comes to non white customers.  Even though, the motel was virtually empty the advertized rate was not available when I asked for it. Proceeding to get a room, after being on the road for two days w/o sleep, they put me in one of the worst rooms they had despite the hotel being empty. It was one with a shared door to the next room which I could head every whisper in the next room. When I asked for a quiet room the guy showed me a worse room next to the elevator (figuring I would realize how great I had it with the poor construction of my previous room). When he told me me I could complaint to the manager the next day, I asked for my money back. The clerk told me I should have made the complaint before the I used the room - (and before the other guests were assigned the room next to mine,) and that he was not going to give me back my money. Finally he showed me to a room which was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r168033877-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>168033877</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r167850153-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>167850153</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>NEEDS MAJOR RENO!</t>
+  </si>
+  <si>
+    <t>Don't bother drive to Terrell dirty,smelly thank god only one night, ask for a quiet room could see full of teens, they put me next to stairwell so what did I hear the door slamming so the girls could sneak up to meet the boys after it went on till 11PM ,I caught the girls and said I"m calling the police.It stopped.WI fi sucked</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r165123455-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>165123455</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Weekend visiting family</t>
+  </si>
+  <si>
+    <t>This was my first stay at this particular La Quinta. I chose this one because it was centrally located for my purpose which was visiting several family members living near this location. This was a good choice for a hotel. The room was very comfortable - and the staff is very courteous and friendly. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161796699-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>161796699</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Get the Cancelation Poicy</t>
+  </si>
+  <si>
+    <t>Unfortunately with all of the "GREAT" reviews for the stays, this hotel lacks the truth when it comes to canceling. When I made my reservation I wasn't told about the cancellation policy and an hour afterwards I needed to cancel. They wouldn't answer the phones. I called another hotel to try and get some help and they too couldn't get this La Quinta to answer as well. Over all, if you make a reservation and have to cancel make sure you give them a pre-paid card so they don't take your money and refuse to give it back because they are to lazy to answer phones. When you stutter or say um a lot you're lying. I was told the following morning that I didn't have sufficient method of payment available, yet my debit card was charged $75.27 for a stay I never had. I'll never recommend this Hotel to anyone ever. And I still want my money back. Management can always make those calls to do the right thing and this location just seems to be after profit this weekend then satisfaction.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Unfortunately with all of the "GREAT" reviews for the stays, this hotel lacks the truth when it comes to canceling. When I made my reservation I wasn't told about the cancellation policy and an hour afterwards I needed to cancel. They wouldn't answer the phones. I called another hotel to try and get some help and they too couldn't get this La Quinta to answer as well. Over all, if you make a reservation and have to cancel make sure you give them a pre-paid card so they don't take your money and refuse to give it back because they are to lazy to answer phones. When you stutter or say um a lot you're lying. I was told the following morning that I didn't have sufficient method of payment available, yet my debit card was charged $75.27 for a stay I never had. I'll never recommend this Hotel to anyone ever. And I still want my money back. Management can always make those calls to do the right thing and this location just seems to be after profit this weekend then satisfaction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161324737-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>161324737</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>We stay in La Quinta's a lot, this one is okay.</t>
+  </si>
+  <si>
+    <t>We have stayed at this property a few times over the last two years, each time the room is clean and neat.  The bed's are starting to sag and could use some work.  Everything else is okay.  Each stay is unremarkable.  There is not much around the hotel and the location is close to I-20 but in a residential neighborhood that is somewhat sketchy.  We make sure we park in the front of the building under one of the lights if possible.  We have never had a problem  but if we got broken into I would not be shocked.  The staff are attentive and take good care of us.  Eat before you get to the hotel because there is not many choices nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this property a few times over the last two years, each time the room is clean and neat.  The bed's are starting to sag and could use some work.  Everything else is okay.  Each stay is unremarkable.  There is not much around the hotel and the location is close to I-20 but in a residential neighborhood that is somewhat sketchy.  We make sure we park in the front of the building under one of the lights if possible.  We have never had a problem  but if we got broken into I would not be shocked.  The staff are attentive and take good care of us.  Eat before you get to the hotel because there is not many choices nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r152538839-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>152538839</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r148297692-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>148297692</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r146136941-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>146136941</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r145990221-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>145990221</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>Nice hotel,with good service. Frankly I did not expect this...........   but it was a nice surprise. The location is hidden from plain sight, but once you get there, you are fine.Staff is very friendly and helpful.     I recomend this to any and all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r138907804-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>138907804</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here and was surprised to find it so clean and such freindly staff, since the hotel is not exactly in main stream location.The girl working front desk told us that it was recently renovated and it showed. The beds were very comfortable. I will surely come back if in the area.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r138047633-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>138047633</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Wedding party hotel stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall service, staff, rooms, amenies and location were excellent. I loved the rooms, wood floors in the bathroom and clean counters. This prevented slipping and falling esp with the kids and elderly.  The beds are awesome because you can sleep five people tona room. The suites were spacious and very nice. The staff was extremely nice and professional. For a mid level hotel the quality is like staying in a five start hotel.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r137735517-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>137735517</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r131402348-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>131402348</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r131031408-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>131031408</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Good Business Stay</t>
+  </si>
+  <si>
+    <t>I found that the location was very convenient for my business purpose. The room was very clean and it smelled good. The bed was very comfy. The front desk attendant both at check-in and check-out were very courteous. The breakfast was OK and satisfying (the waffles were really good). I found the hotel to be a very good deal for the value.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r130008219-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>130008219</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r127163293-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>127163293</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and it is always great.  Everyone is so friendly and helpful.  The room is clean with everything you need, great breakfast, and love the location.  The pool is always clean and tidy.  I will be staying here my next trip to this area.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r124669023-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>124669023</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>First, the ladies at the front desk were very nice and accomodating. The room was nice size, clean, and beds comfortable. Breakfast is ok if you're not starving and need a snack. The warning is that we were traveling from SC to AZ  with rental truck. The hotel has parking for trucks and rv's. I parked the truck under a light and next morning went to put bags in back of truck. I found the lock had been cut and we lost quite a bit of things. Not much police could do, that said if you're traveling with rental truck and decide to stay here, this is what might happen.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>First, the ladies at the front desk were very nice and accomodating. The room was nice size, clean, and beds comfortable. Breakfast is ok if you're not starving and need a snack. The warning is that we were traveling from SC to AZ  with rental truck. The hotel has parking for trucks and rv's. I parked the truck under a light and next morning went to put bags in back of truck. I found the lock had been cut and we lost quite a bit of things. Not much police could do, that said if you're traveling with rental truck and decide to stay here, this is what might happen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r115414118-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>115414118</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>I found this to be a perfect place to stay,  with the sweetest and most hospitable staff.</t>
+  </si>
+  <si>
+    <t>I needed a hotel room near Seagoville, that had 2 bedrooms, a coffee maker, breakfast and a pool. I found exactly what I wanted, plus a refridgerator and a microwave,  for about $100 per night.     The bed was comfy, our 2 daughters each had their own bed, and shared a TV in their room. My husband claims to have gotten the best sleep, and now he is sure we need a pillowtop mattress :) I like the abundant fluffy pillows that are piled up on the beds :D   Our room was quiet and peaceful. The pool, although small, was very clean and never crowded.     I enjoyed the sunny side breakfast about five times this week.  One of the mornings, I had discovered the waffle batter was empty, and had grabbed something else instead. One of the lovely ladies that work here came to check the breakfast area, noticed that I'd been unable to make a waffle. She refilled the machine, and then made a waffle for me, and get this, she didn't think it was good enough, and she made another! I never had a complaint the whole week I was here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a hotel room near Seagoville, that had 2 bedrooms, a coffee maker, breakfast and a pool. I found exactly what I wanted, plus a refridgerator and a microwave,  for about $100 per night.     The bed was comfy, our 2 daughters each had their own bed, and shared a TV in their room. My husband claims to have gotten the best sleep, and now he is sure we need a pillowtop mattress :) I like the abundant fluffy pillows that are piled up on the beds :D   Our room was quiet and peaceful. The pool, although small, was very clean and never crowded.     I enjoyed the sunny side breakfast about five times this week.  One of the mornings, I had discovered the waffle batter was empty, and had grabbed something else instead. One of the lovely ladies that work here came to check the breakfast area, noticed that I'd been unable to make a waffle. She refilled the machine, and then made a waffle for me, and get this, she didn't think it was good enough, and she made another! I never had a complaint the whole week I was here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74846337-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>74846337</t>
+  </si>
+  <si>
+    <t>08/11/2010</t>
+  </si>
+  <si>
+    <t>Okay but not what you'd expect from LaQuinta</t>
+  </si>
+  <si>
+    <t>'Way below par' seems to be the norm at this particular hotel.  I stayed only one night, checked in late (11:00pm) and found that my room had no towels, the bath sink had coffee in it.  I called the desk about the towels, she said she'd bring some up; she did but it took her nearly an hour.  Internet didn't work, I called again, still didn't work.  I brought my laptop down to the desk and the two clerks had no idea what was wrong.  They weren't rude, they just didn't seem to care.  This LQ did not have any eggs &amp; bacon, just sweet rolls, waffles you make yourself and coffe, juice, cereals.  I finally got on the internet, I think it was hacked into, it started doing something weird, like sites popping up without me doing any typing and so I got off immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>'Way below par' seems to be the norm at this particular hotel.  I stayed only one night, checked in late (11:00pm) and found that my room had no towels, the bath sink had coffee in it.  I called the desk about the towels, she said she'd bring some up; she did but it took her nearly an hour.  Internet didn't work, I called again, still didn't work.  I brought my laptop down to the desk and the two clerks had no idea what was wrong.  They weren't rude, they just didn't seem to care.  This LQ did not have any eggs &amp; bacon, just sweet rolls, waffles you make yourself and coffe, juice, cereals.  I finally got on the internet, I think it was hacked into, it started doing something weird, like sites popping up without me doing any typing and so I got off immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74812579-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>74812579</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>It appears this hotel was recently remodeled.   The lobby and common area were immaculate and looked great.  Our room was clean with very nice furnishings.  The only negative were a few stains on the carpet.  Otherwise, it was near perfect and with my early reservation, the price was amazing!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r60541504-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>60541504</t>
+  </si>
+  <si>
+    <t>04/06/2010</t>
+  </si>
+  <si>
+    <t>The WORST HOTEL EVER!!!!! DONT WASTE YOUR TIME OR MONEY!</t>
+  </si>
+  <si>
+    <t>I would not stay at this DUMP! My children and I were headed to dallas to watch my husband at Pinks All Out. I was informed while on my way there that the room we booked was not available due to flooding. They offered a double 2 bed room to my famiy of 5 with no other options! The room stunk, there were no sheets on one of the beds, the bath was filthy, the beds were uncomfortable and the staff was RUDE! When voicing my concerns to the general manager Praveen, he offered no resolution and after over a week of trying to speak with him in person, he sent me the most apauling email, stating that his hotel was not in he wrong! What ever you do aviold this place!!!!! The Motel 6 probably would have been much nicer!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I would not stay at this DUMP! My children and I were headed to dallas to watch my husband at Pinks All Out. I was informed while on my way there that the room we booked was not available due to flooding. They offered a double 2 bed room to my famiy of 5 with no other options! The room stunk, there were no sheets on one of the beds, the bath was filthy, the beds were uncomfortable and the staff was RUDE! When voicing my concerns to the general manager Praveen, he offered no resolution and after over a week of trying to speak with him in person, he sent me the most apauling email, stating that his hotel was not in he wrong! What ever you do aviold this place!!!!! The Motel 6 probably would have been much nicer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r28367562-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>28367562</t>
+  </si>
+  <si>
+    <t>04/19/2009</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>In all my years of traveling this is one of the worst hotels I have ever stayed in.  The room was filthy. There were toenail clippings that weren't ours on the carpet as well as old food. The internet didn't work because it was hacked into according to the manager. The sheets and blankets were threadbare and had holes in them. We had a suite so it wasn't cheap. The last night we were there there was a party going on loudly above us until 3 am. We called the manager twice and complained and she did nothing. When I complained and checked out early the next morning they did take 25 dollars off the bill but even so avoid this place at any cost. The pool was cold and dirty like the whole hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>In all my years of traveling this is one of the worst hotels I have ever stayed in.  The room was filthy. There were toenail clippings that weren't ours on the carpet as well as old food. The internet didn't work because it was hacked into according to the manager. The sheets and blankets were threadbare and had holes in them. We had a suite so it wasn't cheap. The last night we were there there was a party going on loudly above us until 3 am. We called the manager twice and complained and she did nothing. When I complained and checked out early the next morning they did take 25 dollars off the bill but even so avoid this place at any cost. The pool was cold and dirty like the whole hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r8503182-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>8503182</t>
+  </si>
+  <si>
+    <t>08/24/2007</t>
+  </si>
+  <si>
+    <t>Don't do it</t>
+  </si>
+  <si>
+    <t>At first glance the property seemed okay, but we were unable to get any sleep due to noise near our room.  Our room was near the stairs, and someone kept running up and down the stairs all night.  The lock on the door to the outside that the stairs opened up to had been broken so that people could have access to the motel all hours of the night.  The management was aware of the room number of the people causing the problem, and they appeared to be semi-perminant residents.  We didn't feel safe here, couldn't get any sleep, and got our money back in the morning.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r3695185-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>3695185</t>
+  </si>
+  <si>
+    <t>07/22/2005</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This hotel is very nice and well-managed. I would advice anyone looking for a good-nights rest to stay here.</t>
+  </si>
+  <si>
+    <t>July 2005</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1571,3209 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>280</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>282</v>
+      </c>
+      <c r="J42" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s">
+        <v>285</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>286</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>288</v>
+      </c>
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>291</v>
+      </c>
+      <c r="J44" t="s">
+        <v>292</v>
+      </c>
+      <c r="K44" t="s">
+        <v>293</v>
+      </c>
+      <c r="L44" t="s">
+        <v>294</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>295</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
+      </c>
+      <c r="J45" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" t="s">
+        <v>300</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>314</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s">
+        <v>331</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>334</v>
+      </c>
+      <c r="J51" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" t="s">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s">
+        <v>337</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s">
+        <v>343</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Laura J</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>M'sha J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r473629304-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Amanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r446613122-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>EbonieP1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r422660689-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -232,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>MissSean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r357379849-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -260,6 +275,9 @@
 The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on...I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on the 1st floor (we were on the 3rd..). Front desk is very nice and understanding though. We got fresh towels, but our bed was never made. The pool here is ridiculously small. I didn't swim, I just saw. They also have a microwave in the sitting/eating, what used to be the breakfast area near the lobby. That microwave smells SO BAD. I almost puked. When I opened it, there was a dirty plate sitting in it. I also remember the 2nd day as I was leaving to do things for the day, I passed a man at the front desk who seemed pretty frustrated. I didn't catch the conversation, but he keep looking at his arms. So I'm thinking maybe he was complaining to the front desk that he was getting bitten by something in the room? We didn't have that problem though... all in all, the room was nice and big, the tv was great, the bathroom was big and had a lot of counter space, the shower head was high...but there were some down sides. it all really depends on how much you're expecting from a motel 6.More</t>
   </si>
   <si>
+    <t>Cobwebs11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r334434085-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -281,6 +299,9 @@
     <t>Location was great for what we were doing.  The good:  room was spotlessly clean, large and pleasant.  People who worked there were very nice.  Price was reasonable.  The bad:  wifi in our room was very spotty, often not there at all.  Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake.  What the heck?  Mattresses were just bad.  Worn out, not the usual La Quinta quality at all.  Very hard on backs.  Light out over the sink in the bathroom; reported it, took two days to get it fixed. Location is right off I-20, but far enough off that the area seems somewhat protected from the interstate mess.More</t>
   </si>
   <si>
+    <t>AzCowboi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r326715484-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
     <t>I decided to take a few days and go explore the Dallas area, have a few points on my Rewards card, I figured why not use them to get a room.  Boy was I wrong!!  When I entered the room, I was assaulted by hispanic music and a strong odor.  The clock radio had been left on full blast. (no it was not the alarm, as that went off at 6am the next day!)  The odor seemed like someone had gone crazy with the air-freshener to cover up some other odor!  Undaunted, I decided to take a shower.  When I leaned my head back to wet my hair, I saw pieces of the ceiling in the shower were hanging down.  Then when i pulled back the shower curtain to get out, someone's dirty wet washcloth fell on me from the shower curtain bar!!!  Needless to say, I cut my trip short and went back home!  More</t>
   </si>
   <si>
+    <t>David N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r319569027-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -323,6 +347,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ran120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r315320955-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t xml:space="preserve">Well I didn't expect the Hyatt but the ole girl showing her age. Seemed clean enough, I had plenty of hot water and saw no bugs. Bed was ok pillows would be a cheap fix, they seem a little hard. Breakfast was alright with the minimum amount choices. I was looking for something close to the Bart and east of town, fit our bill. </t>
   </si>
   <si>
+    <t>Jill J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r293147672-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Zahne A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r291173437-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -371,6 +404,9 @@
     <t>I felt like I was at home away from home. JIll Jones is a wonderful, beautiful, smart,intelligent, young lady! She gave me the best room and treated me like i was a princess. My only complaint is that i would like more juice options in the breakfast area. other than that it was wonderful.</t>
   </si>
   <si>
+    <t>Erykah-Kayhn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r290399875-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -389,6 +425,9 @@
     <t>I paid $100 for this damn room and it wasn't worth it at all i stayed in room 220...the lamp behind the tv didn't work the refrigerator didn't work nor did microwave...i called to let them know and i was told that they didn't have anymore light bulbs and maintenance would come fix the rest on top of that i didn't have any soap shampoo conditioner or lotion you know the complimentary mess so luckily i always bring my own....but to accommodate me for the FRIDGE being out they would let me put my belonging in their fridge...I BET NOT!!! THAT MEANS I NEED TO GET UP GO DOWNSTAIRS GET MY STUFF GO BACK UP STAIRS CONTINUOUSLY besides that, COMPLETE STRANGERS WOULD HAVE ACCESS TO MY FOOD AND DRINKS. ..UUUUUGH....i was told that i couldn't get a refund or anything off the room because i didn't book with them directly...ALL IN ALL DON'T WASTE YOUR TIME. ...o yeah the waffles are great. ..i did say WAFFLES....More</t>
   </si>
   <si>
+    <t>Shaina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r270283076-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -407,6 +446,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Betsy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269096723-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -425,6 +467,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>lindagS2063VT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269177818-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -440,6 +485,9 @@
     <t>Short-sheeted bed, no bath tub stopper for bath, no plastic bag liners for garbage cans in room. Tub has a rust  mark inside, making it look dirty, but I could not remove it. A/c was very noisy and could not be used during sleep. Excessive noise in hallways was not good.</t>
   </si>
   <si>
+    <t>Ckcfirst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r260226840-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -461,6 +509,9 @@
     <t>This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are...This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are misleading.  It appears to show the rooms have been remodeled and updated.  It's still the same old dingy carpet and bedding from a long time ago.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r249294098-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -479,6 +530,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>savannahM09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r246759038-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -497,6 +551,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Ric A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r241800965-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -515,6 +572,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Rod S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r239280154-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -528,6 +588,9 @@
   </si>
   <si>
     <t>This is a nice hotel and gives value for money. I liked the staff including housekeepers, who are very helpful and also the front desk people.Looking for baseball fields nearby, the guy printed out directions for me without even asking for them. Every time I came in or went out, they were smiling.</t>
+  </si>
+  <si>
+    <t>gina34</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r235583757-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -566,6 +629,9 @@
 No hairdryers, no doors to closet - just the holes and ripped sheet...Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field- price per night was great (should have been a red flag)-beds and pillows are comfortable (when not occupied by bugs)- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. No hairdryers, no doors to closet - just the holes and ripped sheet rock of where the door used to be. The hot part of breakfast is ONE waffle maker - all else is continental like pastries and cereals. Hotel is located in a residential area - upon arriving at night was a little daunting. There are no access points to hotel from back or side parking lots as they don't have card readers at those doors - so if you arrive late and have to park behind the hotel (poor lighting) you have to make the long walk to the front doors to come in.Pay extra and stay elsewhere if possible. More</t>
   </si>
   <si>
+    <t>DaveMJr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r229236918-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -584,6 +650,9 @@
     <t>I visited the Seagoville area on business this month (Sept 14). The first room I was given had a musty odor and was adjacent to the morning breakfast area.  Monday morning I listened to the ice machine in the other side of the wall cycle for quite some time. After a short request I moved to a second floor room near the laundry which fixed those two problems. I found the staff to be very accommodating and pleasant.  The area, however, is not the best and would stay close to Mesquite on future trips. I found little to no places to eat or stop for refreshments in the immediate vicinity. If you have a short visit and the hotel is convenient I wouldn't have a problem.  Longer term stays would best in a nicer/safer/more hospitable area. More</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r211760113-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -605,6 +674,9 @@
     <t>I had reserved a room for June 7, 2014 and placed my credit card on the account. On the day I went to the hotel to confirm the reservation but the desk clerk said that they could not take the payment because I was early and many of the rooms the patrons had not checked out. I told them I was going to the event and it would be later before I could come back, the clerk told me that he would assign a room to me and not to worry. I had reserved the room for a family member and after the even I called the hotel to find out that my reservation had been canceled and my family member had no place to spend the night. I had to find a place for my family member to spend the night which was very stressful. This was not good and I was upset over this outcome. I called the hotel the following day and talk to the manager, who did find the error because I was charged for the room and was instructed to contact my bank so that the charges  were taken off my bank account.More</t>
   </si>
   <si>
+    <t>juinmi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r203910447-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -626,6 +698,9 @@
     <t>Booked for location as we had an event in Mesquite and closer hotels were booked. Musty smell the minute you walk into the hotel. Third floor room, which obviously used to be a smoking floor as the stench was overwhelming the second the elevator doors opened. Nonsmoking! room was spacious but grungy. Dead insects on the ratty stained carpeting. Holes and frayed edges on the towels. The bathroom countertop was stained with cigarette marks. The pervasive smell of old cigarettes was sickening. Was so glad I didn't have a black light to highlight what I'm sure was there but couldn't see. Tore the comforter off and slept fully clothed. Pass on booking this hotel!More</t>
   </si>
   <si>
+    <t>lprice31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r193014613-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -647,6 +722,9 @@
     <t>Have stayed in several La Quintas before this was by far the worst. Very dirty dead crickets lined along the walls, smelly carpet, bed covers torn and worn not to mention the cigarette burns in a "non-smoking" room. Tried to rest in spite of for our cousin to call our room to say they we're awaken by something creepy crawling on them turned on the light and there was a roach on the pillow. This place even advertises continental breakfast which doesn't exist there was only waffles and as dirty, smelly, and disgusting as this place is who would want to eat it. I never write reviews but felt this needed to be said please be wise before you book. The staff was knowledgeable and friendly but that doesn't make up for he fact that this place is a dump and in need of a SERIOUS reno!More</t>
   </si>
   <si>
+    <t>JLP111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r191760903-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -665,6 +743,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Jeremiah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r188383381-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -686,6 +767,9 @@
     <t>I can only presume that neither customer courtesy nor sanctification are a priority when it comes to non white customers.  Even though, the motel was virtually empty the advertized rate was not available when I asked for it. Proceeding to get a room, after being on the road for two days w/o sleep, they put me in one of the worst rooms they had despite the hotel being empty. It was one with a shared door to the next room which I could head every whisper in the next room. When I asked for a quiet room the guy showed me a worse room next to the elevator (figuring I would realize how great I had it with the poor construction of my previous room). When he told me me I could complaint to the manager the next day, I asked for my money back. The clerk told me I should have made the complaint before the I used the room - (and before the other guests were assigned the room next to mine,) and that he was not going to give me back my money. Finally he showed me to a room which was quiet.More</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r168033877-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -704,6 +788,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>IslaholicIslamujeres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r167850153-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -719,6 +806,9 @@
     <t>Don't bother drive to Terrell dirty,smelly thank god only one night, ask for a quiet room could see full of teens, they put me next to stairwell so what did I hear the door slamming so the girls could sneak up to meet the boys after it went on till 11PM ,I caught the girls and said I"m calling the police.It stopped.WI fi sucked</t>
   </si>
   <si>
+    <t>charlesd589</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r165123455-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -737,6 +827,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Ladybugg9803</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161796699-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -758,6 +851,9 @@
     <t>Unfortunately with all of the "GREAT" reviews for the stays, this hotel lacks the truth when it comes to canceling. When I made my reservation I wasn't told about the cancellation policy and an hour afterwards I needed to cancel. They wouldn't answer the phones. I called another hotel to try and get some help and they too couldn't get this La Quinta to answer as well. Over all, if you make a reservation and have to cancel make sure you give them a pre-paid card so they don't take your money and refuse to give it back because they are to lazy to answer phones. When you stutter or say um a lot you're lying. I was told the following morning that I didn't have sufficient method of payment available, yet my debit card was charged $75.27 for a stay I never had. I'll never recommend this Hotel to anyone ever. And I still want my money back. Management can always make those calls to do the right thing and this location just seems to be after profit this weekend then satisfaction.More</t>
   </si>
   <si>
+    <t>curtishardy09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161324737-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -845,6 +941,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Danah A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r138047633-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -869,6 +968,9 @@
     <t>08/20/2012</t>
   </si>
   <si>
+    <t>Julie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r131402348-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1010,9 @@
     <t>05/15/2012</t>
   </si>
   <si>
+    <t>taylormadephotos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r127163293-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1031,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>wrome54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r124669023-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1055,9 @@
     <t>First, the ladies at the front desk were very nice and accomodating. The room was nice size, clean, and beds comfortable. Breakfast is ok if you're not starving and need a snack. The warning is that we were traveling from SC to AZ  with rental truck. The hotel has parking for trucks and rv's. I parked the truck under a light and next morning went to put bags in back of truck. I found the lock had been cut and we lost quite a bit of things. Not much police could do, that said if you're traveling with rental truck and decide to stay here, this is what might happen.More</t>
   </si>
   <si>
+    <t>motherly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r115414118-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1076,9 @@
     <t>I needed a hotel room near Seagoville, that had 2 bedrooms, a coffee maker, breakfast and a pool. I found exactly what I wanted, plus a refridgerator and a microwave,  for about $100 per night.     The bed was comfy, our 2 daughters each had their own bed, and shared a TV in their room. My husband claims to have gotten the best sleep, and now he is sure we need a pillowtop mattress :) I like the abundant fluffy pillows that are piled up on the beds :D   Our room was quiet and peaceful. The pool, although small, was very clean and never crowded.     I enjoyed the sunny side breakfast about five times this week.  One of the mornings, I had discovered the waffle batter was empty, and had grabbed something else instead. One of the lovely ladies that work here came to check the breakfast area, noticed that I'd been unable to make a waffle. She refilled the machine, and then made a waffle for me, and get this, she didn't think it was good enough, and she made another! I never had a complaint the whole week I was here.More</t>
   </si>
   <si>
+    <t>TigrrrLily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74846337-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1100,9 @@
     <t>'Way below par' seems to be the norm at this particular hotel.  I stayed only one night, checked in late (11:00pm) and found that my room had no towels, the bath sink had coffee in it.  I called the desk about the towels, she said she'd bring some up; she did but it took her nearly an hour.  Internet didn't work, I called again, still didn't work.  I brought my laptop down to the desk and the two clerks had no idea what was wrong.  They weren't rude, they just didn't seem to care.  This LQ did not have any eggs &amp; bacon, just sweet rolls, waffles you make yourself and coffe, juice, cereals.  I finally got on the internet, I think it was hacked into, it started doing something weird, like sites popping up without me doing any typing and so I got off immediately.More</t>
   </si>
   <si>
+    <t>livinsimplyx2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74812579-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1115,9 @@
     <t>It appears this hotel was recently remodeled.   The lobby and common area were immaculate and looked great.  Our room was clean with very nice furnishings.  The only negative were a few stains on the carpet.  Otherwise, it was near perfect and with my early reservation, the price was amazing!</t>
   </si>
   <si>
+    <t>family4Austin_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r60541504-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1019,6 +1139,9 @@
     <t>I would not stay at this DUMP! My children and I were headed to dallas to watch my husband at Pinks All Out. I was informed while on my way there that the room we booked was not available due to flooding. They offered a double 2 bed room to my famiy of 5 with no other options! The room stunk, there were no sheets on one of the beds, the bath was filthy, the beds were uncomfortable and the staff was RUDE! When voicing my concerns to the general manager Praveen, he offered no resolution and after over a week of trying to speak with him in person, he sent me the most apauling email, stating that his hotel was not in he wrong! What ever you do aviold this place!!!!! The Motel 6 probably would have been much nicer!More</t>
   </si>
   <si>
+    <t>chinesemama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r28367562-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1158,9 @@
   </si>
   <si>
     <t>In all my years of traveling this is one of the worst hotels I have ever stayed in.  The room was filthy. There were toenail clippings that weren't ours on the carpet as well as old food. The internet didn't work because it was hacked into according to the manager. The sheets and blankets were threadbare and had holes in them. We had a suite so it wasn't cheap. The last night we were there there was a party going on loudly above us until 3 am. We called the manager twice and complained and she did nothing. When I complained and checked out early the next morning they did take 25 dollars off the bill but even so avoid this place at any cost. The pool was cold and dirty like the whole hotel.More</t>
+  </si>
+  <si>
+    <t>SaxyJoe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r8503182-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -1575,43 +1701,47 @@
       <c r="A2" t="n">
         <v>42344</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>10515</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1631,50 +1761,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42344</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1688,50 +1822,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42344</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>6382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
         <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1745,50 +1883,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42344</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1802,50 +1944,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42344</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1865,50 +2011,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42344</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>164330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1932,50 +2082,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42344</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1997,50 +2151,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42344</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9060</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2054,50 +2212,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42344</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>28015</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2111,50 +2273,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42344</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>65166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" t="s">
-        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2168,50 +2334,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42344</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2231,50 +2401,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42344</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2288,50 +2462,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42344</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2345,50 +2523,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42344</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>61484</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2402,50 +2584,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42344</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2469,50 +2655,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42344</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>74643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2530,50 +2720,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42344</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2597,50 +2791,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42344</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2658,50 +2856,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42344</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>22756</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2725,50 +2927,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42344</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>103029</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2788,41 +2994,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42344</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>19561</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -2841,41 +3051,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42344</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2904,50 +3118,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42344</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2963,50 +3181,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42344</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3028,50 +3250,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42344</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3095,50 +3321,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42344</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3162,50 +3392,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42344</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>90889</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3229,48 +3463,52 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42344</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3294,50 +3532,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42344</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3361,50 +3603,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42344</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>169206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3428,50 +3674,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42344</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3491,50 +3741,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42344</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169208</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3558,35 +3812,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42344</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3594,10 +3852,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3618,36 +3876,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42344</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3655,10 +3914,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3679,36 +3938,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42344</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3716,10 +3976,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3738,51 +3998,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42344</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3806,50 +4067,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42344</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3873,50 +4138,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42344</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>169209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3940,35 +4209,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42344</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -3976,10 +4249,10 @@
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4000,36 +4273,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42344</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>42697</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4037,10 +4311,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4061,51 +4335,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42344</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4129,35 +4404,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42344</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C43" t="s">
+        <v>243</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4165,10 +4444,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4179,51 +4458,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42344</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>169210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>324</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4247,50 +4527,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42344</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>169211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>331</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4314,41 +4598,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42344</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>169212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>339</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -4377,50 +4665,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42344</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>169213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4442,50 +4734,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42344</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>169214</v>
+      </c>
+      <c r="C48" t="s">
+        <v>354</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="J48" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4509,50 +4805,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42344</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>169215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4576,41 +4876,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42344</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>169216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>367</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J50" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -4639,50 +4943,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42344</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>169217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>374</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="J51" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="K51" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4706,50 +5014,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42344</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4771,7 +5083,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_546.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Laura J</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r518582102-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>55436</t>
+  </si>
+  <si>
+    <t>241635</t>
+  </si>
+  <si>
+    <t>518582102</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Very helpful</t>
+  </si>
+  <si>
+    <t>Place is being rebranded as a Motel 6 and is being refurbishedRoom was clean and fine. The whole place bright, light and cleanReal good part was the friendliness and help of the staff, particularly to changes to our booking due to Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r489437089-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>489437089</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Day weekend </t>
+  </si>
+  <si>
+    <t>Came in from Bryan Texas for a family wedding I always stay here they are improving all rooms looks a lot  nicer. I also have family that live right down the road that  is always a plus never had any issues with staying here glad  that they are making improvements!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r478965932-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
-    <t>55436</t>
-  </si>
-  <si>
-    <t>241635</t>
-  </si>
-  <si>
     <t>478965932</t>
   </si>
   <si>
@@ -180,9 +219,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>M'sha J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r473629304-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -198,12 +234,6 @@
     <t xml:space="preserve">The stay was alright. The staff wasn't so welcoming. I had to ask for an iron because there was none in the room. The toilet overflowed. No free breakfast just juice and coffee. The only good thing about it is I had a place to lay my head, because my home is being renovated. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Amanda J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r446613122-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -222,7 +252,43 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>EbonieP1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r432270730-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>432270730</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Motel 6 old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stay here it is in a bad neighborhood and it use to be la quinta and now it motel 6. The rooms smells they don't clean sheets and  bathroom is dirty.  There is serval hotel in sea go ville.  It smelt like weed and smoke and people are crazy at nights . Cars got broken into </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r425037688-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>425037688</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Could Have Been BETTER!</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel was the price of $52 a night, but besides that it wasn't great. It had a nasty mold smell in all the rooms. The ice machine was broke, and the pillows and sheets were not very clean. Plus the manager needs to work on his people skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r422660689-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -241,12 +307,6 @@
   </si>
   <si>
     <t>September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>MissSean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r357379849-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -268,16 +328,10 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!
 The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on...I'm a little angry because everywhere I looked it said this place had free breakfast. I chose this place over an airbnb for that reason alone. Unfortunately I found out too late that that was wrong. There was no free breakfast. This place is a la quinta transitioning into a motel 6. So there is still la quinta stuff all over the hotel that has nothing to do with motel 6. For example, when you go over to the juice and coffee area you will see a sign that says what time the free breakfast is from. But there is no b-fast. Also, on the door in our room, there is a piece of paper that says that check out time is at 12 noon. So my boyfriend and I took our time before checking out. However we were informed by the maids that check out time is 11 PM and that paper is completely wrong. Then why is it stuff up?? Take it down! You're going to confuse people!The located was 20 min outside downtown dallas and the price was good, and our room was HUGE, so those are some up sides. Also each room comes with a microwave and mini fridge. However the safe they provide doesnt work because they're in the process of removing them. Walls are a little thin so we heard our next door neighbors getting freaky. Ice machine is all the way on the 1st floor (we were on the 3rd..). Front desk is very nice and understanding though. We got fresh towels, but our bed was never made. The pool here is ridiculously small. I didn't swim, I just saw. They also have a microwave in the sitting/eating, what used to be the breakfast area near the lobby. That microwave smells SO BAD. I almost puked. When I opened it, there was a dirty plate sitting in it. I also remember the 2nd day as I was leaving to do things for the day, I passed a man at the front desk who seemed pretty frustrated. I didn't catch the conversation, but he keep looking at his arms. So I'm thinking maybe he was complaining to the front desk that he was getting bitten by something in the room? We didn't have that problem though... all in all, the room was nice and big, the tv was great, the bathroom was big and had a lot of counter space, the shower head was high...but there were some down sides. it all really depends on how much you're expecting from a motel 6.More</t>
   </si>
   <si>
-    <t>Cobwebs11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r334434085-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -299,7 +353,40 @@
     <t>Location was great for what we were doing.  The good:  room was spotlessly clean, large and pleasant.  People who worked there were very nice.  Price was reasonable.  The bad:  wifi in our room was very spotty, often not there at all.  Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake.  What the heck?  Mattresses were just bad.  Worn out, not the usual La Quinta quality at all.  Very hard on backs.  Light out over the sink in the bathroom; reported it, took two days to get it fixed. Location is right off I-20, but far enough off that the area seems somewhat protected from the interstate mess.More</t>
   </si>
   <si>
-    <t>AzCowboi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r330920874-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>330920874</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Stay Somewhere else</t>
+  </si>
+  <si>
+    <t>From the manager on down.  These people will not do anything for you.  If you are a traveler with ANY expectation of a hotel....clean towels, rooms, pool.  Go somewhere else.  I finally got call from a manager after two days.  And, he explained that they were a franchise La Quinta, and don't have to go by their rules and regulations.  If it were not for Corporate finally helping me.  I would not be staying at any other LaQuinta, ever.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r330629176-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>330629176</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>GUEST</t>
+  </si>
+  <si>
+    <t>The staff were very friendly.  The A/C, TV, microwave, fridge worked; hotel had a warm and friendly atmosphere; only complaint was that hotel only had one waffle iron so the line was always long.  I would stay there again, the rates were average, and the location between my family, friends, and social activities were excellent.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r326715484-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -317,15 +404,9 @@
     <t>I decided to take a few days and go explore the Dallas area, have a few points on my Rewards card, I figured why not use them to get a room.  Boy was I wrong!!  When I entered the room, I was assaulted by hispanic music and a strong odor.  The clock radio had been left on full blast. (no it was not the alarm, as that went off at 6am the next day!)  The odor seemed like someone had gone crazy with the air-freshener to cover up some other odor!  Undaunted, I decided to take a shower.  When I leaned my head back to wet my hair, I saw pieces of the ceiling in the shower were hanging down.  Then when i pulled back the shower curtain to get out, someone's dirty wet washcloth fell on me from the shower curtain bar!!!  Needless to say, I cut my trip short and went back home!  MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>I decided to take a few days and go explore the Dallas area, have a few points on my Rewards card, I figured why not use them to get a room.  Boy was I wrong!!  When I entered the room, I was assaulted by hispanic music and a strong odor.  The clock radio had been left on full blast. (no it was not the alarm, as that went off at 6am the next day!)  The odor seemed like someone had gone crazy with the air-freshener to cover up some other odor!  Undaunted, I decided to take a shower.  When I leaned my head back to wet my hair, I saw pieces of the ceiling in the shower were hanging down.  Then when i pulled back the shower curtain to get out, someone's dirty wet washcloth fell on me from the shower curtain bar!!!  Needless to say, I cut my trip short and went back home!  More</t>
   </si>
   <si>
-    <t>David N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r319569027-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -341,15 +422,6 @@
     <t xml:space="preserve">I shared a room with a friend... All they had to offer was a "family room" it was dirty stains on the couch and carpet.. and out dated decor, the light bulbs in all the lamps were burned out. We got down to breakfast at 9:54 and the staff had already put all the food and drinks away only burnt coffee left it was bad! Had ask staff for water to drink... If you have a choice stay elsewhere </t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Ran120</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r315320955-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -365,7 +437,40 @@
     <t xml:space="preserve">Well I didn't expect the Hyatt but the ole girl showing her age. Seemed clean enough, I had plenty of hot water and saw no bugs. Bed was ok pillows would be a cheap fix, they seem a little hard. Breakfast was alright with the minimum amount choices. I was looking for something close to the Bart and east of town, fit our bill. </t>
   </si>
   <si>
-    <t>Jill J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r314408613-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>314408613</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>The worst hotel I have ever stayed in.</t>
+  </si>
+  <si>
+    <t>Stayed with my family 3 nights for 5 days on the 3rd floor. NO HOT WATER, ROACHES IN THE BATHROOM. Complained to the front desk many times that we had to take shower with COLD WATER they sent maintenance guy who confirmed that there was no HOT WATER. Still not was done about it. At one time they told me that they will turn off the laundry machine off to see if I can get HOT WATER I don't mean warm but it was always COLD WATER for the five days. We had to wipe our self with wash cloths oh I forgot the towels had stains on them too even the front desk guy had to come and change it himself. Don't waste your money staying at this location and not sure about other locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed with my family 3 nights for 5 days on the 3rd floor. NO HOT WATER, ROACHES IN THE BATHROOM. Complained to the front desk many times that we had to take shower with COLD WATER they sent maintenance guy who confirmed that there was no HOT WATER. Still not was done about it. At one time they told me that they will turn off the laundry machine off to see if I can get HOT WATER I don't mean warm but it was always COLD WATER for the five days. We had to wipe our self with wash cloths oh I forgot the towels had stains on them too even the front desk guy had to come and change it himself. Don't waste your money staying at this location and not sure about other locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r312027132-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>312027132</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>NO HOT WATER, LARGE ROACHES, MANY DOGS AND CATS AND PIGS</t>
+  </si>
+  <si>
+    <t>Do not let the exterior beauty memorize you. Large roaches are everywhere, once the lights are turned on at night. This place is too cheap to install an industrial boiler, thus no hot water, anytime of the day or night. You need not worry about a wake up call as the pigs, cats and dogs will gladly, assist.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r293147672-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -386,9 +491,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Zahne A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r291173437-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -404,9 +506,6 @@
     <t>I felt like I was at home away from home. JIll Jones is a wonderful, beautiful, smart,intelligent, young lady! She gave me the best room and treated me like i was a princess. My only complaint is that i would like more juice options in the breakfast area. other than that it was wonderful.</t>
   </si>
   <si>
-    <t>Erykah-Kayhn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r290399875-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -425,7 +524,43 @@
     <t>I paid $100 for this damn room and it wasn't worth it at all i stayed in room 220...the lamp behind the tv didn't work the refrigerator didn't work nor did microwave...i called to let them know and i was told that they didn't have anymore light bulbs and maintenance would come fix the rest on top of that i didn't have any soap shampoo conditioner or lotion you know the complimentary mess so luckily i always bring my own....but to accommodate me for the FRIDGE being out they would let me put my belonging in their fridge...I BET NOT!!! THAT MEANS I NEED TO GET UP GO DOWNSTAIRS GET MY STUFF GO BACK UP STAIRS CONTINUOUSLY besides that, COMPLETE STRANGERS WOULD HAVE ACCESS TO MY FOOD AND DRINKS. ..UUUUUGH....i was told that i couldn't get a refund or anything off the room because i didn't book with them directly...ALL IN ALL DON'T WASTE YOUR TIME. ...o yeah the waffles are great. ..i did say WAFFLES....More</t>
   </si>
   <si>
-    <t>Shaina M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r275136517-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>275136517</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>The shiny, nice lobby is DECEIVING!</t>
+  </si>
+  <si>
+    <t>We stayed here in room 114 for several nights.  We only stayed past night #1 because someone else paid for the room and we didn't want to "look a gift horse in the mouth."  The carpet right inside the door of the room was wet, as if the commode had leaked.  The fixtures looked old and there was a little black mold on the shower curtain and soap holder. There were fingernail clippings in the bathroom floor, behind the door.   The breakfast was terrible.  Of course, it was only cereal, waffles, yogurt, etc., which I can deal with.   One morning, there was no ice under the yogurt, butter, and cream cheese (VERY unsafe!).  There was no decaf coffee, (which someone like me needs because of heart trouble) and no choice of low-fat or skim milk.  Another morning, I was sick and stayed in bed.  About 20 minutes before breakfast was over, my husband went to get me some yogurt and there was none out.  There was no attendant around, so he asked the front desk staff.  The clerk went and found the woman who put out the breakfast and she promptly told him she "wasn't going to put out anymore."  What arrogance! Of course, I went without breakfast that morning because my husband had to leave for business.  The only plus to this hotel was the front desk staff, who were all very friendly and helpful.  Don't stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed here in room 114 for several nights.  We only stayed past night #1 because someone else paid for the room and we didn't want to "look a gift horse in the mouth."  The carpet right inside the door of the room was wet, as if the commode had leaked.  The fixtures looked old and there was a little black mold on the shower curtain and soap holder. There were fingernail clippings in the bathroom floor, behind the door.   The breakfast was terrible.  Of course, it was only cereal, waffles, yogurt, etc., which I can deal with.   One morning, there was no ice under the yogurt, butter, and cream cheese (VERY unsafe!).  There was no decaf coffee, (which someone like me needs because of heart trouble) and no choice of low-fat or skim milk.  Another morning, I was sick and stayed in bed.  About 20 minutes before breakfast was over, my husband went to get me some yogurt and there was none out.  There was no attendant around, so he asked the front desk staff.  The clerk went and found the woman who put out the breakfast and she promptly told him she "wasn't going to put out anymore."  What arrogance! Of course, I went without breakfast that morning because my husband had to leave for business.  The only plus to this hotel was the front desk staff, who were all very friendly and helpful.  Don't stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r270775614-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>270775614</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Wow!!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel on several occasions.  The staff even knows our last name when we walk into the door. This stay was not the best thjs time. The first floor is the floor they mainly use for pets. We do have a dog. The first floor rooms, just do not have that sanitary feeling to them as the other rooms do on the upper levels. This time we were in room 114, it had a slight cat smell in the room. That wasn't so bad as what I think I found when I went to move the night stand next to the bed to plug up a few electronics. What I think it was, cat poop. It was between the night stand and the wall. The next morning, I did tell the lady working the front desk. She said maintenance would have to go in there and clean that up. I was a bit surprised that maintenance would be doing that job. Anyway......nothing more was said. We like the staff at this la quinta,  they are pretty friendly. I have to say, I was disappointed in the way that situation was handled.It will not stop me from staying again. I know that there are rooms that are really nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel on several occasions.  The staff even knows our last name when we walk into the door. This stay was not the best thjs time. The first floor is the floor they mainly use for pets. We do have a dog. The first floor rooms, just do not have that sanitary feeling to them as the other rooms do on the upper levels. This time we were in room 114, it had a slight cat smell in the room. That wasn't so bad as what I think I found when I went to move the night stand next to the bed to plug up a few electronics. What I think it was, cat poop. It was between the night stand and the wall. The next morning, I did tell the lady working the front desk. She said maintenance would have to go in there and clean that up. I was a bit surprised that maintenance would be doing that job. Anyway......nothing more was said. We like the staff at this la quinta,  they are pretty friendly. I have to say, I was disappointed in the way that situation was handled.It will not stop me from staying again. I know that there are rooms that are really nice. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r270283076-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -443,12 +578,6 @@
     <t>If I hadn't just driven all day and knew of another pet friendly hotel I would have RAN OUT! Stinks of smoke, pee left in toilet and all over seat, shower still wet, tissues in garage! Blegh, I'll be contacting someone hire in the morning to comp this stay it is the worst La Quinta experience I have ever had and I've stayed at a lot being a military family with pets who pcs a lot.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>Betsy R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269096723-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -467,9 +596,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>lindagS2063VT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r269177818-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -485,7 +611,37 @@
     <t>Short-sheeted bed, no bath tub stopper for bath, no plastic bag liners for garbage cans in room. Tub has a rust  mark inside, making it look dirty, but I could not remove it. A/c was very noisy and could not be used during sleep. Excessive noise in hallways was not good.</t>
   </si>
   <si>
-    <t>Ckcfirst</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r266355261-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>266355261</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Disappointing for a La Quinta. It seemed like the hotel attracted a bunch of shady characters and isn't in the best neighborhood. The room was decent; spacious and comfortable. However, it seems like the housekeeper forgot to clean the bathroom completely because there was no shampoo and he/she forgot to remove a used soap bar. I probably wouldn't stay here again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r261619496-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>261619496</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel say ever!</t>
+  </si>
+  <si>
+    <t>First room was uncleaned, air conditioner was smashed, and the toilet was literally filled with feces... Replacement room was not much better, slept with my cloths on. Also in a bad part of town. Would not recommend this hotel ever, would have rather slept on a park bench in the rain.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r260226840-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -503,15 +659,9 @@
     <t>This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are...This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are misleading.  It appears to show the rooms have been remodeled and updated.  It's still the same old dingy carpet and bedding from a long time ago.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are...This hotel is located in a residential section of a "not so good" part of Dallas.  This is the second time I have stayed here, and the last.  The first time, the room smelled bad, and the hotel in general was dirty and grungy.  Today, I decided to give this hotel one more chance. The hotel is advertised as a 100% non-smoking hotel.  After the check-in process, and initialing on the paper that I would be charged $250 if there was smoking in my room, the initial room they placed me in smelled like smoke! Yuck! I didn't want to stay in there, nor get blamed for it.  The second room they placed me into has a cigarette burn on the comforter. I had to call down to the lobby to make sure I wasn't charged for that. Plus, In one of the beds, there was a hair between the sheets, and a little spider running around between the sheets!  They advertise 100% satisfaction guarantee in the lobby, and I am DEFINITELY not even 50% satisfied.  Dang, I wish I would have stayed at the Holiday Inn Express in Mesquite! I should have known better. Never gonna step foot in here again! The entire hotel grosses me out.  If I wasn't so exhausted I would pack up all my stuff, check out, and go get another hotel. Live and learn I guess. Oh also, the photos on the website are misleading.  It appears to show the rooms have been remodeled and updated.  It's still the same old dingy carpet and bedding from a long time ago.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r249294098-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -530,9 +680,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>savannahM09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r246759038-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -551,7 +698,34 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Ric A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r246643716-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>246643716</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Rating Motel Stay at LaQuinta, Balch Springs, TX</t>
+  </si>
+  <si>
+    <t>My son &amp; I enjoyed staying at this motel. Service was very good. The room had several things that weren't totally clean. The beds are not the most comfortable. However, this is a great motel to stay at location wise &amp; for the value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r244064952-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>244064952</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>I GIVE THIS HOTEL 3 STARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything in and around the hotel was great.  It was clean and the room was nice. Our overall experience was great. The problem came in the morning, when we decided to take showers. We didn't double check anything bc we have not ever run into this problem at a La Quinta hotel. My husband went to get a shower and there was only 1 washcloth, 2 towels. We needed 3 towels. I believe the shower had a scold resistant lever bc the shower water only got warm. It never got hot at all. Other than that......al was great. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r241800965-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -572,9 +746,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Rod S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r239280154-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -588,9 +759,6 @@
   </si>
   <si>
     <t>This is a nice hotel and gives value for money. I liked the staff including housekeepers, who are very helpful and also the front desk people.Looking for baseball fields nearby, the guy printed out directions for me without even asking for them. Every time I came in or went out, they were smiling.</t>
-  </si>
-  <si>
-    <t>gina34</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r235583757-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -629,7 +797,37 @@
 No hairdryers, no doors to closet - just the holes and ripped sheet...Stayed here for a softball tournament in Mesquite, Tx. Our team had 12 rooms. Pros: - location to the Mesquite Softball Complex - 5 minute drive door to field- price per night was great (should have been a red flag)-beds and pillows are comfortable (when not occupied by bugs)- Candace at the front desk was very helpful and friendly. She's a hard worker who had a smile on her face at midnight and 6am.Cons: - sewer smell throughout rooms on 1st &amp; 2nd floors (we had families leave WITHOUT checking out because their rooms smelt like urinals. This was after they'd spent $60 on cleaning supplies to try and mask the smells and clean the bathrooms- bathtubs and bathrooms were awful- mildew on shower curtains, tubs stained yellow and rusted and rather than resurface them, there was a yellow liner placed over the grime and rust. The vanity is new but the walls are poorly patched up where the old mirrors and curtain rods used to be. We had small roaches in our bathroom when we arrived.- The carpets were absolutely disgusting! Severely stained and ripped at edges to doors, closets and to bathroom. Honestly, this was a bad hotel that with new carpet and fresh paint could be salvaged. The pictures online are not true representations of the actual rooms. No hairdryers, no doors to closet - just the holes and ripped sheet rock of where the door used to be. The hot part of breakfast is ONE waffle maker - all else is continental like pastries and cereals. Hotel is located in a residential area - upon arriving at night was a little daunting. There are no access points to hotel from back or side parking lots as they don't have card readers at those doors - so if you arrive late and have to park behind the hotel (poor lighting) you have to make the long walk to the front doors to come in.Pay extra and stay elsewhere if possible. More</t>
   </si>
   <si>
-    <t>DaveMJr</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r233754891-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>233754891</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>After reading several negative reviews of this hotel I was pleasantly surprised to find none of it applied to my recent stay of 4 days.  I received excellent customer service from check in to check out.  The room was large with all the advertised  amenities in place and in working condition. The price was reasonable and I felt it was a good value. Front desk staff was very helpful.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r232322805-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>232322805</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Disgusted!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After waiting 30 minutes in line, I was given a room (at a high rate I might add) and as soon as we walk into the given room.. there were other people inside of it!! I couldnt believe what had happened so I went downstairs and was rudely helped. After changing the room we notice such a disgusting air conditioning with roaches and flies in it. There was no a/c when we  walked in. First place we stayed in Texas, cant believe this was my first experience! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r229236918-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -650,9 +848,6 @@
     <t>I visited the Seagoville area on business this month (Sept 14). The first room I was given had a musty odor and was adjacent to the morning breakfast area.  Monday morning I listened to the ice machine in the other side of the wall cycle for quite some time. After a short request I moved to a second floor room near the laundry which fixed those two problems. I found the staff to be very accommodating and pleasant.  The area, however, is not the best and would stay close to Mesquite on future trips. I found little to no places to eat or stop for refreshments in the immediate vicinity. If you have a short visit and the hotel is convenient I wouldn't have a problem.  Longer term stays would best in a nicer/safer/more hospitable area. More</t>
   </si>
   <si>
-    <t>Linda W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r211760113-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -674,9 +869,6 @@
     <t>I had reserved a room for June 7, 2014 and placed my credit card on the account. On the day I went to the hotel to confirm the reservation but the desk clerk said that they could not take the payment because I was early and many of the rooms the patrons had not checked out. I told them I was going to the event and it would be later before I could come back, the clerk told me that he would assign a room to me and not to worry. I had reserved the room for a family member and after the even I called the hotel to find out that my reservation had been canceled and my family member had no place to spend the night. I had to find a place for my family member to spend the night which was very stressful. This was not good and I was upset over this outcome. I called the hotel the following day and talk to the manager, who did find the error because I was charged for the room and was instructed to contact my bank so that the charges  were taken off my bank account.More</t>
   </si>
   <si>
-    <t>juinmi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r203910447-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -698,7 +890,37 @@
     <t>Booked for location as we had an event in Mesquite and closer hotels were booked. Musty smell the minute you walk into the hotel. Third floor room, which obviously used to be a smoking floor as the stench was overwhelming the second the elevator doors opened. Nonsmoking! room was spacious but grungy. Dead insects on the ratty stained carpeting. Holes and frayed edges on the towels. The bathroom countertop was stained with cigarette marks. The pervasive smell of old cigarettes was sickening. Was so glad I didn't have a black light to highlight what I'm sure was there but couldn't see. Tore the comforter off and slept fully clothed. Pass on booking this hotel!More</t>
   </si>
   <si>
-    <t>lprice31</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r195729455-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>195729455</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The air won't turn off and we have to unplug it. The fridge doesn't work at all.  The area looks like drug deals are being made. It smells like stale smoke. We will never stay here again. Nice receptionist but horrible conditions. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r193985388-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>193985388</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>My family and I are passing through and we stayed in the large suite and its very roomy, clean and comfortable. Front desk staff is very friendly. We love the Texas shape waffles for breakfast. I am please with the rate and the hotel. We will come back when passing through again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r193014613-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -716,15 +938,9 @@
     <t>Have stayed in several La Quintas before this was by far the worst. Very dirty dead crickets lined along the walls, smelly carpet, bed covers torn and worn not to mention the cigarette burns in a "non-smoking" room. Tried to rest in spite of for our cousin to call our room to say they we're awaken by something creepy crawling on them turned on the light and there was a roach on the pillow. This place even advertises continental breakfast which doesn't exist there was only waffles and as dirty, smelly, and disgusting as this place is who would want to eat it. I never write reviews but felt this needed to be said please be wise before you book. The staff was knowledgeable and friendly but that doesn't make up for he fact that this place is a dump and in need of a SERIOUS reno!MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>Have stayed in several La Quintas before this was by far the worst. Very dirty dead crickets lined along the walls, smelly carpet, bed covers torn and worn not to mention the cigarette burns in a "non-smoking" room. Tried to rest in spite of for our cousin to call our room to say they we're awaken by something creepy crawling on them turned on the light and there was a roach on the pillow. This place even advertises continental breakfast which doesn't exist there was only waffles and as dirty, smelly, and disgusting as this place is who would want to eat it. I never write reviews but felt this needed to be said please be wise before you book. The staff was knowledgeable and friendly but that doesn't make up for he fact that this place is a dump and in need of a SERIOUS reno!More</t>
   </si>
   <si>
-    <t>JLP111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r191760903-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -743,9 +959,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Jeremiah G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r188383381-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -767,7 +980,34 @@
     <t>I can only presume that neither customer courtesy nor sanctification are a priority when it comes to non white customers.  Even though, the motel was virtually empty the advertized rate was not available when I asked for it. Proceeding to get a room, after being on the road for two days w/o sleep, they put me in one of the worst rooms they had despite the hotel being empty. It was one with a shared door to the next room which I could head every whisper in the next room. When I asked for a quiet room the guy showed me a worse room next to the elevator (figuring I would realize how great I had it with the poor construction of my previous room). When he told me me I could complaint to the manager the next day, I asked for my money back. The clerk told me I should have made the complaint before the I used the room - (and before the other guests were assigned the room next to mine,) and that he was not going to give me back my money. Finally he showed me to a room which was quiet.More</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r185510982-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>185510982</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Pleasant overnight stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here after driving from Tucson... We were exhausted! Customer service was EXCELLENT and really helped make our stay. The lady at the front desk on 11/22 went above and beyond to help us make sure we were set for our drive back to Georgia today. The hotel looks like it has been remodeled and our room was clean but had a faint smell of cigarette smoke, although the room was non smoking. There was a free continental breakfast that was pretty standard of all hotels, waffle maker included. It was an awesome value and I'm glad we stayed.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r180129970-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>180129970</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r168033877-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -788,9 +1028,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>IslaholicIslamujeres</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r167850153-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -806,9 +1043,6 @@
     <t>Don't bother drive to Terrell dirty,smelly thank god only one night, ask for a quiet room could see full of teens, they put me next to stairwell so what did I hear the door slamming so the girls could sneak up to meet the boys after it went on till 11PM ,I caught the girls and said I"m calling the police.It stopped.WI fi sucked</t>
   </si>
   <si>
-    <t>charlesd589</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r165123455-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -827,7 +1061,22 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Ladybugg9803</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r164821127-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>164821127</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r163889819-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>163889819</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161796699-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -851,9 +1100,6 @@
     <t>Unfortunately with all of the "GREAT" reviews for the stays, this hotel lacks the truth when it comes to canceling. When I made my reservation I wasn't told about the cancellation policy and an hour afterwards I needed to cancel. They wouldn't answer the phones. I called another hotel to try and get some help and they too couldn't get this La Quinta to answer as well. Over all, if you make a reservation and have to cancel make sure you give them a pre-paid card so they don't take your money and refuse to give it back because they are to lazy to answer phones. When you stutter or say um a lot you're lying. I was told the following morning that I didn't have sufficient method of payment available, yet my debit card was charged $75.27 for a stay I never had. I'll never recommend this Hotel to anyone ever. And I still want my money back. Management can always make those calls to do the right thing and this location just seems to be after profit this weekend then satisfaction.More</t>
   </si>
   <si>
-    <t>curtishardy09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r161324737-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -884,6 +1130,33 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r150439302-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>150439302</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r149036433-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>149036433</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>What a pleasure!!</t>
+  </si>
+  <si>
+    <t>The staff was more than accommodating.  Vanessa was a super huge help with the confusion about my room and charges. She promptly and very courteously took care of all of our requests. If travels take us back this direction , this is where we will stay. The king suite is the way to go when choosing a room. The extra space in the room and the jacuzzi tube are well worth the extra charge. The hard wood floors in the bathroom were a nice touch as well.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r148297692-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1196,39 @@
     <t>Nice hotel,with good service. Frankly I did not expect this...........   but it was a nice surprise. The location is hidden from plain sight, but once you get there, you are fine.Staff is very friendly and helpful.     I recomend this to any and all.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r144544787-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>144544787</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>great stay!!!</t>
+  </si>
+  <si>
+    <t>The rooms, service and staff were excellent for the price. But the reason I didn't give 5 stars is because of the hallways. The smokers hall needs better ventalation as there are others who stay in those rooms who don't smoke. Better ventalation will cure this minor detail. The over all experience was fantastic! Great prices and great people. I would definately recommend this hotel again...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r142495403-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>142495403</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent find</t>
+  </si>
+  <si>
+    <t>The location wasn't all that great (not one of the most attractive areas of Dallas) but the hotel was clean, very cost effective, rooms were nice and my stay was almost perfect. The outside pool is pretty small and barely usable - the continental breakfast was definitely not as varied as you may expect but, all in all, a very solid choice in East Dallas.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r138907804-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -941,9 +1247,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Danah A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r138047633-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -968,7 +1271,37 @@
     <t>08/20/2012</t>
   </si>
   <si>
-    <t>Julie G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r136184219-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>136184219</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>LQ CHECK IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The check-in process to over 40 minutes even though I had registered via internet.  The worker on duty tried to activate 25 different room keycards but was unsucessful.  He didn't apologize he just made the statement even though you've paid, I can't give you a room if I can't activate a card. The bathroom wasn't properly cleaned. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r132758563-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>132758563</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Loved the outdoor pool area. Room was perfect! Showers need a little TLC but otherwise very clean and comfortable. Everything worked and love the Texas shaped waffles in the morning!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r131402348-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -980,9 +1313,6 @@
     <t>06/06/2012</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r131031408-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1010,7 +1340,25 @@
     <t>05/15/2012</t>
   </si>
   <si>
-    <t>taylormadephotos</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r129410031-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>129410031</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r127951852-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>127951852</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>April 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r127163293-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -1031,9 +1379,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>wrome54</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r124669023-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1055,9 +1400,6 @@
     <t>First, the ladies at the front desk were very nice and accomodating. The room was nice size, clean, and beds comfortable. Breakfast is ok if you're not starving and need a snack. The warning is that we were traveling from SC to AZ  with rental truck. The hotel has parking for trucks and rv's. I parked the truck under a light and next morning went to put bags in back of truck. I found the lock had been cut and we lost quite a bit of things. Not much police could do, that said if you're traveling with rental truck and decide to stay here, this is what might happen.More</t>
   </si>
   <si>
-    <t>motherly</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r115414118-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1076,7 +1418,43 @@
     <t>I needed a hotel room near Seagoville, that had 2 bedrooms, a coffee maker, breakfast and a pool. I found exactly what I wanted, plus a refridgerator and a microwave,  for about $100 per night.     The bed was comfy, our 2 daughters each had their own bed, and shared a TV in their room. My husband claims to have gotten the best sleep, and now he is sure we need a pillowtop mattress :) I like the abundant fluffy pillows that are piled up on the beds :D   Our room was quiet and peaceful. The pool, although small, was very clean and never crowded.     I enjoyed the sunny side breakfast about five times this week.  One of the mornings, I had discovered the waffle batter was empty, and had grabbed something else instead. One of the lovely ladies that work here came to check the breakfast area, noticed that I'd been unable to make a waffle. She refilled the machine, and then made a waffle for me, and get this, she didn't think it was good enough, and she made another! I never had a complaint the whole week I was here.More</t>
   </si>
   <si>
-    <t>TigrrrLily</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r111093543-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>111093543</t>
+  </si>
+  <si>
+    <t>06/02/2011</t>
+  </si>
+  <si>
+    <t>A Hidden Gem!!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night in a 1 King/2 Dbl bed suite with a sleeper sofa, that could easily and comfortably sleep 8 people, and I must say we were pleasantly surprised. The room and bathroom were very spacious, so much so that 2 queens beds could have fit in the room with the king bed in it, which was very comfortable to sleep in. I liked this place because it gave a very homey feeling and when staying in hotels, thats important to me. Another plus was that the hotel offered free wi-fi which I happily utilized and the staff was very accomodating. The only cons they had in my opinion where the old model tv's in the room, the breakfast, and the location. They had the texas-shaped waffles, bread, cereal, oatmeal and yogurt, which was not really my ideal breakfast because I am more of a meat person, but overall I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night in a 1 King/2 Dbl bed suite with a sleeper sofa, that could easily and comfortably sleep 8 people, and I must say we were pleasantly surprised. The room and bathroom were very spacious, so much so that 2 queens beds could have fit in the room with the king bed in it, which was very comfortable to sleep in. I liked this place because it gave a very homey feeling and when staying in hotels, thats important to me. Another plus was that the hotel offered free wi-fi which I happily utilized and the staff was very accomodating. The only cons they had in my opinion where the old model tv's in the room, the breakfast, and the location. They had the texas-shaped waffles, bread, cereal, oatmeal and yogurt, which was not really my ideal breakfast because I am more of a meat person, but overall I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r82971500-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>82971500</t>
+  </si>
+  <si>
+    <t>10/11/2010</t>
+  </si>
+  <si>
+    <t>Balch Springs?</t>
+  </si>
+  <si>
+    <t>The clerk asked what brought us to Balch Springs, mainly because there is no reason for most people to be there. It is close to the Mesquite Rodeo but is in an out of the way location. We needed a convenient stopover. The hotel was pleasant and very clean. Staff was friendly but on check out informed me that I was supposed to have been upgraded to a suite. Thanks! Was I supposed to have enjoyed my suite? Food choices were very limited even for LQ...no hot water or tea bags, no eggs. Still, very quiet room that was well sized.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74846337-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -1100,9 +1478,6 @@
     <t>'Way below par' seems to be the norm at this particular hotel.  I stayed only one night, checked in late (11:00pm) and found that my room had no towels, the bath sink had coffee in it.  I called the desk about the towels, she said she'd bring some up; she did but it took her nearly an hour.  Internet didn't work, I called again, still didn't work.  I brought my laptop down to the desk and the two clerks had no idea what was wrong.  They weren't rude, they just didn't seem to care.  This LQ did not have any eggs &amp; bacon, just sweet rolls, waffles you make yourself and coffe, juice, cereals.  I finally got on the internet, I think it was hacked into, it started doing something weird, like sites popping up without me doing any typing and so I got off immediately.More</t>
   </si>
   <si>
-    <t>livinsimplyx2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r74812579-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1115,9 +1490,6 @@
     <t>It appears this hotel was recently remodeled.   The lobby and common area were immaculate and looked great.  Our room was clean with very nice furnishings.  The only negative were a few stains on the carpet.  Otherwise, it was near perfect and with my early reservation, the price was amazing!</t>
   </si>
   <si>
-    <t>family4Austin_Texas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r60541504-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
   </si>
   <si>
@@ -1139,7 +1511,40 @@
     <t>I would not stay at this DUMP! My children and I were headed to dallas to watch my husband at Pinks All Out. I was informed while on my way there that the room we booked was not available due to flooding. They offered a double 2 bed room to my famiy of 5 with no other options! The room stunk, there were no sheets on one of the beds, the bath was filthy, the beds were uncomfortable and the staff was RUDE! When voicing my concerns to the general manager Praveen, he offered no resolution and after over a week of trying to speak with him in person, he sent me the most apauling email, stating that his hotel was not in he wrong! What ever you do aviold this place!!!!! The Motel 6 probably would have been much nicer!More</t>
   </si>
   <si>
-    <t>chinesemama</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r57999043-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>57999043</t>
+  </si>
+  <si>
+    <t>03/07/2010</t>
+  </si>
+  <si>
+    <t>What a joint!</t>
+  </si>
+  <si>
+    <t>I should have known when we closed the elevator door that something was up with this La Quinta in Balch Springs, Texas, near Dallas. The elevator was slow and uncertain, so after getting upstairs, we decided we wouldn't use it again during our stay.  Upon entering our room we were assaulted by the stale smell of cigarettes. There was only one towel in the room rented for three of us, so we called the front desk.  The clerk's response was “there is only one towel left in the hotel and I can't bring it up because I can't leave the cash register.”  The frig froze the veggies but not the ice.  And breakfast consisted of  cheap pastries,  instant oatmeal and waffles, there was no decaf coffee and the cream was powdered.  It wasn't worth the effort to go downstairs. The clientele was rough.  Perhaps they were why there was only one towel left in the hotel.  I was the only woman in the area except for two girls.  Finding this place was a challenge because it isn't near any other commercial establishment except a liquor store.  La Quinta in Balch Springs is on a street surrounded by rundown houses—you wouldn't want to take a walk outside.  My advice—don't bother looking for it.  We had reserved the place for two nights but canceled the second night, opting for a different La Quinta in Garland.MoreShow less</t>
+  </si>
+  <si>
+    <t>I should have known when we closed the elevator door that something was up with this La Quinta in Balch Springs, Texas, near Dallas. The elevator was slow and uncertain, so after getting upstairs, we decided we wouldn't use it again during our stay.  Upon entering our room we were assaulted by the stale smell of cigarettes. There was only one towel in the room rented for three of us, so we called the front desk.  The clerk's response was “there is only one towel left in the hotel and I can't bring it up because I can't leave the cash register.”  The frig froze the veggies but not the ice.  And breakfast consisted of  cheap pastries,  instant oatmeal and waffles, there was no decaf coffee and the cream was powdered.  It wasn't worth the effort to go downstairs. The clientele was rough.  Perhaps they were why there was only one towel left in the hotel.  I was the only woman in the area except for two girls.  Finding this place was a challenge because it isn't near any other commercial establishment except a liquor store.  La Quinta in Balch Springs is on a street surrounded by rundown houses—you wouldn't want to take a walk outside.  My advice—don't bother looking for it.  We had reserved the place for two nights but canceled the second night, opting for a different La Quinta in Garland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r29023636-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
+  </si>
+  <si>
+    <t>29023636</t>
+  </si>
+  <si>
+    <t>04/29/2009</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel many of times and have had a great room (a year ago). When we were going to stay  this time the hotel has turned into a dump. Roaches all over the bathroom. Cookies and trash in the drawers. Carpet had stains all in the room. It looked like a $40 dollar hotel. Of course we asked for our money back and got it.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r28367562-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -1158,9 +1563,6 @@
   </si>
   <si>
     <t>In all my years of traveling this is one of the worst hotels I have ever stayed in.  The room was filthy. There were toenail clippings that weren't ours on the carpet as well as old food. The internet didn't work because it was hacked into according to the manager. The sheets and blankets were threadbare and had holes in them. We had a suite so it wasn't cheap. The last night we were there there was a party going on loudly above us until 3 am. We called the manager twice and complained and she did nothing. When I complained and checked out early the next morning they did take 25 dollars off the bill but even so avoid this place at any cost. The pool was cold and dirty like the whole hotel.More</t>
-  </si>
-  <si>
-    <t>SaxyJoe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55436-d241635-r8503182-Hotel_Balch_Springs-Balch_Springs_Texas.html</t>
@@ -1701,114 +2103,100 @@
       <c r="A2" t="n">
         <v>42344</v>
       </c>
-      <c r="B2" t="n">
-        <v>10515</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42344</v>
       </c>
-      <c r="B3" t="n">
-        <v>169193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1822,115 +2210,113 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42344</v>
       </c>
-      <c r="B4" t="n">
-        <v>6382</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42344</v>
       </c>
-      <c r="B5" t="n">
-        <v>169194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1944,261 +2330,221 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42344</v>
       </c>
-      <c r="B6" t="n">
-        <v>169195</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42344</v>
       </c>
-      <c r="B7" t="n">
-        <v>164330</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42344</v>
       </c>
-      <c r="B8" t="n">
-        <v>169196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42344</v>
       </c>
-      <c r="B9" t="n">
-        <v>9060</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2212,188 +2558,190 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42344</v>
       </c>
-      <c r="B10" t="n">
-        <v>28015</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42344</v>
       </c>
-      <c r="B11" t="n">
-        <v>65166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42344</v>
       </c>
-      <c r="B12" t="n">
-        <v>169197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2401,176 +2749,182 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42344</v>
       </c>
-      <c r="B13" t="n">
-        <v>169198</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42344</v>
       </c>
-      <c r="B14" t="n">
-        <v>169199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42344</v>
       </c>
-      <c r="B15" t="n">
-        <v>61484</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2584,135 +2938,119 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42344</v>
       </c>
-      <c r="B16" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42344</v>
       </c>
-      <c r="B17" t="n">
-        <v>74643</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2720,54 +3058,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42344</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2775,12 +3109,8 @@
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>1</v>
@@ -2791,135 +3121,119 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42344</v>
       </c>
-      <c r="B19" t="n">
-        <v>169201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42344</v>
       </c>
-      <c r="B20" t="n">
-        <v>22756</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2927,321 +3241,289 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42344</v>
       </c>
-      <c r="B21" t="n">
-        <v>103029</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42344</v>
       </c>
-      <c r="B22" t="n">
-        <v>19561</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42344</v>
       </c>
-      <c r="B23" t="n">
-        <v>169202</v>
-      </c>
-      <c r="C23" t="s">
-        <v>197</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42344</v>
       </c>
-      <c r="B24" t="n">
-        <v>6841</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42344</v>
       </c>
-      <c r="B25" t="n">
-        <v>169203</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="s"/>
       <c r="V25" t="n">
@@ -3250,66 +3532,62 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42344</v>
       </c>
-      <c r="B26" t="n">
-        <v>169204</v>
-      </c>
-      <c r="C26" t="s">
-        <v>220</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
         <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3321,70 +3599,62 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42344</v>
       </c>
-      <c r="B27" t="n">
-        <v>169205</v>
-      </c>
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>234</v>
-      </c>
-      <c r="O27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
         <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3392,139 +3662,117 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42344</v>
       </c>
-      <c r="B28" t="n">
-        <v>90889</v>
-      </c>
-      <c r="C28" t="s">
-        <v>235</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42344</v>
       </c>
-      <c r="B29" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C29" t="s">
-        <v>243</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3532,70 +3780,66 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42344</v>
       </c>
-      <c r="B30" t="n">
-        <v>156121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3603,67 +3847,57 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42344</v>
       </c>
-      <c r="B31" t="n">
-        <v>169206</v>
-      </c>
-      <c r="C31" t="s">
-        <v>256</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3674,66 +3908,66 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42344</v>
       </c>
-      <c r="B32" t="n">
-        <v>169207</v>
-      </c>
-      <c r="C32" t="s">
-        <v>263</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3741,121 +3975,107 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42344</v>
       </c>
-      <c r="B33" t="n">
-        <v>169208</v>
-      </c>
-      <c r="C33" t="s">
-        <v>271</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42344</v>
       </c>
-      <c r="B34" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C34" t="s">
-        <v>243</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3867,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3876,60 +4096,61 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42344</v>
       </c>
-      <c r="B35" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C35" t="s">
-        <v>243</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="K35" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3938,124 +4159,112 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42344</v>
       </c>
-      <c r="B36" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C36" t="s">
-        <v>243</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>251</v>
+      </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>289</v>
-      </c>
-      <c r="O36" t="s">
-        <v>60</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42344</v>
       </c>
-      <c r="B37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="O37" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
         <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4067,70 +4276,62 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42344</v>
       </c>
-      <c r="B38" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>300</v>
-      </c>
-      <c r="O38" t="s">
-        <v>108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4138,70 +4339,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42344</v>
       </c>
-      <c r="B39" t="n">
-        <v>169209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>301</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>300</v>
-      </c>
-      <c r="O39" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4209,194 +4402,186 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42344</v>
       </c>
-      <c r="B40" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C40" t="s">
-        <v>243</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42344</v>
       </c>
-      <c r="B41" t="n">
-        <v>42697</v>
-      </c>
-      <c r="C41" t="s">
-        <v>310</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>313</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="K41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s">
+        <v>281</v>
+      </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42344</v>
       </c>
-      <c r="B42" t="n">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>320</v>
-      </c>
-      <c r="O42" t="s">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4404,122 +4589,133 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42344</v>
       </c>
-      <c r="B43" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C43" t="s">
-        <v>243</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="J43" t="s">
-        <v>323</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s">
+        <v>293</v>
+      </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42344</v>
       </c>
-      <c r="B44" t="n">
-        <v>169210</v>
-      </c>
-      <c r="C44" t="s">
-        <v>324</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="J44" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4527,70 +4723,66 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42344</v>
       </c>
-      <c r="B45" t="n">
-        <v>169211</v>
-      </c>
-      <c r="C45" t="s">
-        <v>331</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4598,66 +4790,66 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42344</v>
       </c>
-      <c r="B46" t="n">
-        <v>169212</v>
-      </c>
-      <c r="C46" t="s">
-        <v>339</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>312</v>
+      </c>
+      <c r="O46" t="s">
+        <v>84</v>
+      </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4665,210 +4857,182 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42344</v>
       </c>
-      <c r="B47" t="n">
-        <v>169213</v>
-      </c>
-      <c r="C47" t="s">
-        <v>346</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s">
-        <v>75</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>2</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42344</v>
       </c>
-      <c r="B48" t="n">
-        <v>169214</v>
-      </c>
-      <c r="C48" t="s">
-        <v>354</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s">
-        <v>349</v>
-      </c>
-      <c r="K48" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" t="s">
-        <v>358</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s">
-        <v>358</v>
-      </c>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42344</v>
       </c>
-      <c r="B49" t="n">
-        <v>169215</v>
-      </c>
-      <c r="C49" t="s">
-        <v>359</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
-      </c>
-      <c r="K49" t="s">
-        <v>363</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4876,66 +5040,66 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42344</v>
       </c>
-      <c r="B50" t="n">
-        <v>169216</v>
-      </c>
-      <c r="C50" t="s">
-        <v>367</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
         <v>2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4943,70 +5107,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42344</v>
       </c>
-      <c r="B51" t="n">
-        <v>169217</v>
-      </c>
-      <c r="C51" t="s">
-        <v>374</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5014,54 +5174,46 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42344</v>
       </c>
-      <c r="B52" t="n">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>163</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
-      </c>
-      <c r="K52" t="s">
-        <v>384</v>
-      </c>
-      <c r="L52" t="s">
-        <v>385</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="O52" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5069,7 +5221,9 @@
       <c r="Q52" t="n">
         <v>5</v>
       </c>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
@@ -5082,8 +5236,2186 @@
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s">
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>347</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>348</v>
+      </c>
+      <c r="J54" t="s">
+        <v>349</v>
+      </c>
+      <c r="K54" t="s">
+        <v>350</v>
+      </c>
+      <c r="L54" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>355</v>
+      </c>
+      <c r="J55" t="s">
+        <v>356</v>
+      </c>
+      <c r="K55" t="s">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s">
+        <v>358</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>352</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>360</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>361</v>
+      </c>
+      <c r="J56" t="s">
+        <v>362</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>363</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>367</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+      <c r="K58" t="s">
+        <v>371</v>
+      </c>
+      <c r="L58" t="s">
+        <v>372</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" t="s">
+        <v>375</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>376</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>377</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>378</v>
+      </c>
+      <c r="J60" t="s">
+        <v>379</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>380</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>381</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>382</v>
+      </c>
+      <c r="J61" t="s">
+        <v>383</v>
+      </c>
+      <c r="K61" t="s">
+        <v>384</v>
+      </c>
+      <c r="L61" t="s">
         <v>385</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>380</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>386</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62" t="s">
+        <v>388</v>
+      </c>
+      <c r="K62" t="s">
+        <v>389</v>
+      </c>
+      <c r="L62" t="s">
+        <v>390</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>380</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>391</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>392</v>
+      </c>
+      <c r="J63" t="s">
+        <v>393</v>
+      </c>
+      <c r="K63" t="s">
+        <v>394</v>
+      </c>
+      <c r="L63" t="s">
+        <v>395</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>396</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>398</v>
+      </c>
+      <c r="J64" t="s">
+        <v>399</v>
+      </c>
+      <c r="K64" t="s">
+        <v>400</v>
+      </c>
+      <c r="L64" t="s">
+        <v>401</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>402</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>403</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>404</v>
+      </c>
+      <c r="J65" t="s">
+        <v>405</v>
+      </c>
+      <c r="K65" t="s">
+        <v>406</v>
+      </c>
+      <c r="L65" t="s">
+        <v>407</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>402</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" t="s">
+        <v>410</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>402</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67" t="s">
+        <v>413</v>
+      </c>
+      <c r="K67" t="s">
+        <v>414</v>
+      </c>
+      <c r="L67" t="s">
+        <v>415</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>402</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>416</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>417</v>
+      </c>
+      <c r="J68" t="s">
+        <v>418</v>
+      </c>
+      <c r="K68" t="s">
+        <v>419</v>
+      </c>
+      <c r="L68" t="s">
+        <v>420</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>421</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>422</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>423</v>
+      </c>
+      <c r="J69" t="s">
+        <v>424</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>421</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>426</v>
+      </c>
+      <c r="J70" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="s">
+        <v>428</v>
+      </c>
+      <c r="L70" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>430</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>432</v>
+      </c>
+      <c r="J71" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>430</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>435</v>
+      </c>
+      <c r="J72" t="s">
+        <v>436</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>430</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>438</v>
+      </c>
+      <c r="J73" t="s">
+        <v>439</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>440</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>441</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>442</v>
+      </c>
+      <c r="J74" t="s">
+        <v>443</v>
+      </c>
+      <c r="K74" t="s">
+        <v>444</v>
+      </c>
+      <c r="L74" t="s">
+        <v>445</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>446</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>447</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>448</v>
+      </c>
+      <c r="J75" t="s">
+        <v>449</v>
+      </c>
+      <c r="K75" t="s">
+        <v>450</v>
+      </c>
+      <c r="L75" t="s">
+        <v>451</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>452</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>454</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>455</v>
+      </c>
+      <c r="J76" t="s">
+        <v>456</v>
+      </c>
+      <c r="K76" t="s">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s">
+        <v>458</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>460</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>461</v>
+      </c>
+      <c r="J77" t="s">
+        <v>462</v>
+      </c>
+      <c r="K77" t="s">
+        <v>463</v>
+      </c>
+      <c r="L77" t="s">
+        <v>464</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>465</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>467</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>468</v>
+      </c>
+      <c r="J78" t="s">
+        <v>469</v>
+      </c>
+      <c r="K78" t="s">
+        <v>470</v>
+      </c>
+      <c r="L78" t="s">
+        <v>471</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>472</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>473</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>474</v>
+      </c>
+      <c r="J79" t="s">
+        <v>475</v>
+      </c>
+      <c r="K79" t="s">
+        <v>476</v>
+      </c>
+      <c r="L79" t="s">
+        <v>477</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>478</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>480</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>481</v>
+      </c>
+      <c r="J80" t="s">
+        <v>475</v>
+      </c>
+      <c r="K80" t="s">
+        <v>482</v>
+      </c>
+      <c r="L80" t="s">
+        <v>483</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>478</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>484</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>485</v>
+      </c>
+      <c r="J81" t="s">
+        <v>486</v>
+      </c>
+      <c r="K81" t="s">
+        <v>487</v>
+      </c>
+      <c r="L81" t="s">
+        <v>488</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>491</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>492</v>
+      </c>
+      <c r="J82" t="s">
+        <v>493</v>
+      </c>
+      <c r="K82" t="s">
+        <v>494</v>
+      </c>
+      <c r="L82" t="s">
+        <v>495</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>497</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>498</v>
+      </c>
+      <c r="J83" t="s">
+        <v>499</v>
+      </c>
+      <c r="K83" t="s">
+        <v>500</v>
+      </c>
+      <c r="L83" t="s">
+        <v>501</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>502</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>503</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>504</v>
+      </c>
+      <c r="J84" t="s">
+        <v>505</v>
+      </c>
+      <c r="K84" t="s">
+        <v>506</v>
+      </c>
+      <c r="L84" t="s">
+        <v>507</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>509</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>510</v>
+      </c>
+      <c r="J85" t="s">
+        <v>511</v>
+      </c>
+      <c r="K85" t="s">
+        <v>512</v>
+      </c>
+      <c r="L85" t="s">
+        <v>513</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>514</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42344</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>515</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>516</v>
+      </c>
+      <c r="J86" t="s">
+        <v>517</v>
+      </c>
+      <c r="K86" t="s">
+        <v>518</v>
+      </c>
+      <c r="L86" t="s">
+        <v>519</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>520</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
